--- a/pyisotopomer_examples/00_Python_template_v3.xlsx
+++ b/pyisotopomer_examples/00_Python_template_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/N2O Research/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA915F1-A313-7D44-A1EC-F76AF0806275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC44D9-2C03-8D4B-9BD0-8ADCE9E435D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37980" yWindow="-5500" windowWidth="37860" windowHeight="23500" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Rsolve18">_xlfn.LAMBDA(_xlpm.Rsam18,_xlpm.n,_xlpm.Rsam45,_xlpm.Rsam46,_xlpm.D17O,_xlpm.k,_xlpm.RVSMOW18,_xlpm.RVSMOW17,       IF(_xlpm.n&gt;0,Rsolve18(_xlfn.LET(_xlpm.Rsam17,(1 + _xlpm.D17O / 1000) * _xlpm.RVSMOW17 * (_xlpm.Rsam18/_xlpm.RVSMOW18) ^ _xlpm.k,         _xlpm.Rsam46 - (_xlpm.Rsam45 - _xlpm.Rsam17) * _xlpm.Rsam17 - (_xlpm.Rsam45 - _xlpm.Rsam17) ^ 2/4),_xlpm.n-1,_xlpm.Rsam45,_xlpm.Rsam46,_xlpm.D17O,_xlpm.k,_xlpm.RVSMOW18,_xlpm.RVSMOW17),               _xlpm.Rsam18))</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3987,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4318,7 +4318,7 @@
         <v>0.42840719999999999</v>
       </c>
       <c r="W3" s="25">
-        <v>3.73376282567055E-3</v>
+        <v>3.7347517422551104E-3</v>
       </c>
       <c r="X3" s="26">
         <v>7.7410249496226297E-3</v>
@@ -4361,7 +4361,7 @@
       <c r="AK3" s="32"/>
       <c r="AL3" s="33">
         <f>AE3*$W$3</f>
-        <v>3.7690253636311292E-3</v>
+        <v>3.7700236197774754E-3</v>
       </c>
       <c r="AM3" s="33">
         <f>AI3*$X$3</f>
@@ -4547,7 +4547,7 @@
       <c r="AK4" s="32"/>
       <c r="AL4" s="33">
         <f t="shared" ref="AL4:AL17" si="7">AE4*$W$3</f>
-        <v>3.7382429851740414E-3</v>
+        <v>3.7392330883642441E-3</v>
       </c>
       <c r="AM4" s="33">
         <f t="shared" ref="AM4:AM17" si="8">AI4*$X$3</f>
@@ -4738,7 +4738,7 @@
       <c r="AK5" s="32"/>
       <c r="AL5" s="33">
         <f t="shared" si="7"/>
-        <v>3.7228017752489757E-3</v>
+        <v>3.7237877887127293E-3</v>
       </c>
       <c r="AM5" s="33">
         <f t="shared" si="8"/>
@@ -4933,7 +4933,7 @@
       <c r="AK6" s="32"/>
       <c r="AL6" s="33">
         <f t="shared" si="7"/>
-        <v>3.7689117349450109E-3</v>
+        <v>3.7699099609959015E-3</v>
       </c>
       <c r="AM6" s="33">
         <f t="shared" si="8"/>
@@ -5128,7 +5128,7 @@
       <c r="AK7" s="32"/>
       <c r="AL7" s="33">
         <f t="shared" si="7"/>
-        <v>3.7376533142238627E-3</v>
+        <v>3.7386432612350551E-3</v>
       </c>
       <c r="AM7" s="33">
         <f t="shared" si="8"/>
@@ -5314,7 +5314,7 @@
       <c r="AK8" s="32"/>
       <c r="AL8" s="33">
         <f t="shared" si="7"/>
-        <v>3.7199285353648262E-3</v>
+        <v>3.7209137878282954E-3</v>
       </c>
       <c r="AM8" s="33">
         <f t="shared" si="8"/>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="AL9" s="33">
         <f t="shared" si="7"/>
-        <v>3.770760540076305E-3</v>
+        <v>3.7717592557978421E-3</v>
       </c>
       <c r="AM9" s="33">
         <f t="shared" si="8"/>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="AL10" s="33">
         <f t="shared" si="7"/>
-        <v>3.7559237220544848E-3</v>
+        <v>3.7569185081275437E-3</v>
       </c>
       <c r="AM10" s="33">
         <f t="shared" si="8"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="AL11" s="33">
         <f t="shared" si="7"/>
-        <v>3.7741574091857285E-3</v>
+        <v>3.7751570245948877E-3</v>
       </c>
       <c r="AM11" s="33">
         <f t="shared" si="8"/>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="AL12" s="33">
         <f t="shared" si="7"/>
-        <v>3.7381947000342886E-3</v>
+        <v>3.7391847904357902E-3</v>
       </c>
       <c r="AM12" s="33">
         <f t="shared" si="8"/>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="AL13" s="33">
         <f t="shared" si="7"/>
-        <v>3.7242631653031056E-3</v>
+        <v>3.7252495658275614E-3</v>
       </c>
       <c r="AM13" s="33">
         <f t="shared" si="8"/>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="AL14" s="33">
         <f t="shared" si="7"/>
-        <v>3.7661587198913019E-3</v>
+        <v>3.767156216784404E-3</v>
       </c>
       <c r="AM14" s="33">
         <f t="shared" si="8"/>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="AL15" s="33">
         <f t="shared" si="7"/>
-        <v>3.7730126315774341E-3</v>
+        <v>3.7740119437831986E-3</v>
       </c>
       <c r="AM15" s="33">
         <f t="shared" si="8"/>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="AL16" s="33">
         <f t="shared" si="7"/>
-        <v>3.7385509216503769E-3</v>
+        <v>3.7395411063999877E-3</v>
       </c>
       <c r="AM16" s="33">
         <f t="shared" si="8"/>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="AL17" s="33">
         <f t="shared" si="7"/>
-        <v>3.7557778240511282E-3</v>
+        <v>3.7567725714819484E-3</v>
       </c>
       <c r="AM17" s="33">
         <f t="shared" si="8"/>

--- a/pyisotopomer_examples/00_Python_template_v3.xlsx
+++ b/pyisotopomer_examples/00_Python_template_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/N2O Research/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC44D9-2C03-8D4B-9BD0-8ADCE9E435D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B17A4-E4FB-2747-BE7C-E34528479DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37980" yWindow="-5500" windowWidth="37860" windowHeight="23500" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -775,22 +775,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3987,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8036,8 +8040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131672C0-DA0C-0746-8A59-3EFE5C746DAE}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/pyisotopomer_examples/00_Python_template_v3.xlsx
+++ b/pyisotopomer_examples/00_Python_template_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/N2O Research/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B17A4-E4FB-2747-BE7C-E34528479DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41518C93-58AF-D648-99DC-20C256437315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="12960" yWindow="500" windowWidth="15840" windowHeight="15880" activeTab="1" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -641,7 +641,7 @@
     <numFmt numFmtId="173" formatCode="0.0000E+00"/>
     <numFmt numFmtId="174" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +795,11 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1164,7 +1169,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1250,23 +1255,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1285,7 +1279,7 @@
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1301,7 +1295,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="1"/>
     <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1374,7 +1367,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1407,6 +1399,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="25" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1647,43 +1640,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.9320472770020231E-3</c:v>
+                  <c:v>6.359336297563082E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.7106403264231301E-3</c:v>
+                  <c:v>-3.7106403264234645E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.6012135306176113E-4</c:v>
+                  <c:v>-2.601213530620943E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9320472770020231E-3</c:v>
+                  <c:v>6.359336297563082E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7106403264231301E-3</c:v>
+                  <c:v>-3.7106403264234645E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6012135306176113E-4</c:v>
+                  <c:v>-2.601213530620943E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9320472770020231E-3</c:v>
+                  <c:v>6.359336297563082E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.7106403264234645E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9320472770020231E-3</c:v>
+                  <c:v>6.359336297563082E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.7106403264231301E-3</c:v>
+                  <c:v>-3.7106403264234645E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6012135306176113E-4</c:v>
+                  <c:v>-2.601213530620943E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9320472770020231E-3</c:v>
+                  <c:v>6.359336297563082E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9320472770020231E-3</c:v>
+                  <c:v>6.359336297563082E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.7106403264231301E-3</c:v>
+                  <c:v>-3.7106403264234645E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,43 +2172,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.412758119012896E-3</c:v>
+                  <c:v>4.5143018361687463E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.7895195007928941E-3</c:v>
+                  <c:v>-6.7895195007912175E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0837317813513596E-3</c:v>
+                  <c:v>2.0837317813529109E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.412758119012896E-3</c:v>
+                  <c:v>4.5143018361687463E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.7895195007928941E-3</c:v>
+                  <c:v>-6.7895195007912175E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0837317813513596E-3</c:v>
+                  <c:v>2.0837317813529109E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.412758119012896E-3</c:v>
+                  <c:v>4.5143018361687463E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.7895195007912175E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.412758119012896E-3</c:v>
+                  <c:v>4.5143018361687463E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.7895195007928941E-3</c:v>
+                  <c:v>-6.7895195007912175E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0837317813513596E-3</c:v>
+                  <c:v>2.0837317813529109E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.412758119012896E-3</c:v>
+                  <c:v>4.5143018361687463E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.412758119012896E-3</c:v>
+                  <c:v>4.5143018361687463E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.7895195007928941E-3</c:v>
+                  <c:v>-6.7895195007912175E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3991,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4009,11 +4008,11 @@
     <col min="36" max="36" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7.83203125" customWidth="1"/>
-    <col min="42" max="42" width="9.6640625" style="61" customWidth="1"/>
+    <col min="42" max="42" width="9.6640625" style="54" customWidth="1"/>
     <col min="43" max="43" width="10.1640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" style="44" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" customWidth="1"/>
     <col min="45" max="45" width="14.33203125" customWidth="1"/>
-    <col min="46" max="48" width="10.83203125" style="50"/>
+    <col min="46" max="48" width="10.83203125" style="43"/>
     <col min="51" max="51" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4026,7 +4025,7 @@
         <v>116</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="63" t="s">
         <v>96</v>
       </c>
       <c r="X1" s="2"/>
@@ -4038,24 +4037,23 @@
       </c>
       <c r="AF1" s="7"/>
       <c r="AG1" s="7"/>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="74"/>
-      <c r="AL1" s="51" t="s">
+      <c r="AJ1" s="66"/>
+      <c r="AL1" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="45"/>
-      <c r="AT1" s="122" t="s">
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="44"/>
+      <c r="AT1" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="AU1" s="122"/>
-      <c r="AV1" s="122"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
       <c r="AX1" s="38" t="s">
         <v>91</v>
       </c>
@@ -4068,17 +4066,17 @@
       <c r="BC1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="102" t="s">
+      <c r="BE1" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="103"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="95"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="96"/>
+      <c r="BM1" s="96"/>
     </row>
     <row r="2" spans="1:65" ht="52" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -4172,44 +4170,44 @@
       <c r="AG2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="75" t="s">
+      <c r="AI2" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="AJ2" s="75" t="s">
+      <c r="AJ2" s="67" t="s">
         <v>119</v>
       </c>
       <c r="AK2" s="23"/>
-      <c r="AL2" s="55" t="s">
+      <c r="AL2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="52" t="s">
+      <c r="AM2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="52" t="s">
+      <c r="AN2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="52" t="s">
+      <c r="AO2" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="AP2" s="59" t="s">
+      <c r="AP2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="53" t="s">
+      <c r="AQ2" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AR2" s="46" t="s">
+      <c r="AR2" s="42" t="s">
         <v>74</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="123" t="s">
+      <c r="AT2" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AU2" s="124" t="s">
+      <c r="AU2" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="125" t="s">
+      <c r="AV2" s="116" t="s">
         <v>34</v>
       </c>
       <c r="AX2" s="39" t="s">
@@ -4230,32 +4228,31 @@
       <c r="BC2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="105" t="s">
+      <c r="BE2" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="BF2" s="105" t="s">
+      <c r="BF2" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="BG2" s="105" t="s">
+      <c r="BG2" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="BH2" s="105" t="s">
+      <c r="BH2" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="BI2" s="106" t="s">
+      <c r="BI2" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="BJ2" s="107" t="s">
+      <c r="BJ2" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="BK2" s="108" t="s">
+      <c r="BK2" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="BL2" s="107" t="s">
+      <c r="BL2" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="BM2" s="109" t="s">
+      <c r="BM2" s="101" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4267,49 +4264,49 @@
         <f>scale_normalization!A3</f>
         <v>ATM</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>0</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>5.4059999999999997</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>46.78</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>3.4780000000000002</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>4.7690000000000001</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <v>4.95</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <v>2.1</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="41">
         <v>1547.6</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="41">
         <v>44169.764756944445</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="41">
         <v>0.76603699999999997</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="41">
         <v>0.74141800000000002</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="41">
         <v>0.43208400000000002</v>
       </c>
       <c r="S3" s="24">
@@ -4322,13 +4319,13 @@
         <v>0.42840719999999999</v>
       </c>
       <c r="W3" s="25">
-        <v>3.7347517422551104E-3</v>
+        <v>3.7337628256705483E-3</v>
       </c>
       <c r="X3" s="26">
-        <v>7.7410249496226297E-3</v>
+        <v>7.7410249496226323E-3</v>
       </c>
       <c r="Y3" s="27">
-        <v>2.1012952215756198E-3</v>
+        <v>2.1012952215756163E-3</v>
       </c>
       <c r="AA3" s="28">
         <f>O3/S3</f>
@@ -4354,37 +4351,37 @@
         <f>$Y$7*(20-I3)+AB3</f>
         <v>1.0075218399408568</v>
       </c>
-      <c r="AI3" s="76">
+      <c r="AI3" s="68">
         <f>AF3^$X$11*EXP(X$12)</f>
-        <v>1.0059968914794004</v>
-      </c>
-      <c r="AJ3" s="76">
+        <v>1.0058729966944395</v>
+      </c>
+      <c r="AJ3" s="68">
         <f>AG3^$Y$11*EXP(Y$12)</f>
-        <v>1.0054928361918907</v>
+        <v>1.0044845842983396</v>
       </c>
       <c r="AK3" s="32"/>
       <c r="AL3" s="33">
         <f>AE3*$W$3</f>
-        <v>3.7700236197774754E-3</v>
+        <v>3.7690253636311274E-3</v>
       </c>
       <c r="AM3" s="33">
         <f>AI3*$X$3</f>
-        <v>7.7874470361848479E-3</v>
+        <v>7.7864879635633402E-3</v>
       </c>
       <c r="AN3" s="33">
         <f>AJ3*$Y$3</f>
-        <v>2.1128372920185372E-3</v>
-      </c>
-      <c r="AO3" s="121">
+        <v>2.1107186571324705E-3</v>
+      </c>
+      <c r="AO3" s="112">
         <v>0</v>
       </c>
-      <c r="AP3" s="56">
+      <c r="AP3" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ3" s="57">
+      <c r="AQ3" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR3" s="47">
+      <c r="AR3" s="8">
         <f>A3</f>
         <v>201204</v>
       </c>
@@ -4392,34 +4389,33 @@
         <f>D3</f>
         <v>ATM_EQ_SW</v>
       </c>
-      <c r="AT3" s="50">
+      <c r="AT3" s="43">
         <v>6.1837131146746902</v>
       </c>
-      <c r="AU3" s="50">
+      <c r="AU3" s="43">
         <v>24.279175342507699</v>
       </c>
-      <c r="AV3" s="50">
+      <c r="AV3" s="43">
         <v>47.588174908592201</v>
       </c>
-      <c r="AX3" s="50">
+      <c r="AX3" s="43">
         <v>15.105455490000001</v>
       </c>
-      <c r="AY3" s="50">
+      <c r="AY3" s="43">
         <v>-2.7098456780000002</v>
       </c>
-      <c r="AZ3" s="50">
+      <c r="AZ3" s="43">
         <v>17.815301160000001</v>
       </c>
-      <c r="BA3" s="50">
+      <c r="BA3" s="43">
         <v>6.1978049049999999</v>
       </c>
-      <c r="BB3" s="50">
+      <c r="BB3" s="43">
         <v>24.00972707</v>
       </c>
-      <c r="BC3" s="50">
+      <c r="BC3" s="43">
         <v>47.054171089999997</v>
       </c>
-      <c r="BD3" s="44"/>
       <c r="BE3">
         <v>265</v>
       </c>
@@ -4433,23 +4429,23 @@
       <c r="BH3" t="s">
         <v>170</v>
       </c>
-      <c r="BI3" s="77">
+      <c r="BI3" s="69">
         <f>BG3*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ3" s="50">
+      <c r="BJ3" s="43">
         <f>I3*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.3147589419488055</v>
       </c>
-      <c r="BK3" s="50">
+      <c r="BK3" s="43">
         <f>BJ3*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32759693848642901</v>
       </c>
-      <c r="BL3" s="50">
+      <c r="BL3" s="43">
         <f>BJ3/BI3</f>
         <v>15.223991502817144</v>
       </c>
-      <c r="BM3" s="50">
+      <c r="BM3" s="43">
         <f>BK3/BI3</f>
         <v>2.1545798646607448</v>
       </c>
@@ -4540,72 +4536,71 @@
         <f t="shared" ref="AG4:AG17" si="4">$Y$7*(20-I4)+AB4</f>
         <v>0.99497700286985102</v>
       </c>
-      <c r="AI4" s="76">
+      <c r="AI4" s="68">
         <f t="shared" ref="AI4:AI17" si="5">AF4^$X$11*EXP(X$12)</f>
-        <v>0.99647928654867735</v>
-      </c>
-      <c r="AJ4" s="76">
+        <v>0.99767868588737729</v>
+      </c>
+      <c r="AJ4" s="68">
         <f t="shared" ref="AJ4:AJ17" si="6">AG4^$Y$11*EXP(Y$12)</f>
-        <v>0.99374694414430875</v>
+        <v>0.99357291603893838</v>
       </c>
       <c r="AK4" s="32"/>
       <c r="AL4" s="33">
         <f t="shared" ref="AL4:AL17" si="7">AE4*$W$3</f>
-        <v>3.7392330883642441E-3</v>
+        <v>3.7382429851740397E-3</v>
       </c>
       <c r="AM4" s="33">
         <f t="shared" ref="AM4:AM17" si="8">AI4*$X$3</f>
-        <v>7.7137710189554686E-3</v>
+        <v>7.7230555991609088E-3</v>
       </c>
       <c r="AN4" s="33">
         <f t="shared" ref="AN4:AN17" si="9">AJ4*$Y$3</f>
-        <v>2.0881557051858103E-3</v>
-      </c>
-      <c r="AO4" s="121">
+        <v>2.0877900207595724E-3</v>
+      </c>
+      <c r="AO4" s="112">
         <v>0</v>
       </c>
-      <c r="AP4" s="56">
+      <c r="AP4" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ4" s="57">
+      <c r="AQ4" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR4" s="47">
+      <c r="AR4" s="8">
         <f t="shared" ref="AR4:AR17" si="10">A4</f>
         <v>201205</v>
       </c>
-      <c r="AS4" s="41" t="str">
+      <c r="AS4" t="str">
         <f t="shared" ref="AS4:AS17" si="11">D4</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="AT4" s="50">
+      <c r="AT4" s="43">
         <v>-3.5025945279739599</v>
       </c>
-      <c r="AU4" s="50">
+      <c r="AU4" s="43">
         <v>17.995404021976</v>
       </c>
-      <c r="AV4" s="50">
+      <c r="AV4" s="43">
         <v>35.169038165624201</v>
       </c>
-      <c r="AX4" s="50">
+      <c r="AX4" s="43">
         <v>6.8736240879999997</v>
       </c>
-      <c r="AY4" s="50">
+      <c r="AY4" s="43">
         <v>-13.881471919999999</v>
       </c>
-      <c r="AZ4" s="50">
+      <c r="AZ4" s="43">
         <v>20.755096009999999</v>
       </c>
-      <c r="BA4" s="50">
+      <c r="BA4" s="43">
         <v>-3.5039239150000001</v>
       </c>
-      <c r="BB4" s="50">
+      <c r="BB4" s="43">
         <v>17.84864966</v>
       </c>
-      <c r="BC4" s="50">
+      <c r="BC4" s="43">
         <v>34.879852069999998</v>
       </c>
-      <c r="BD4" s="44"/>
       <c r="BE4">
         <v>265</v>
       </c>
@@ -4619,23 +4614,23 @@
       <c r="BH4" t="s">
         <v>39</v>
       </c>
-      <c r="BI4" s="77">
+      <c r="BI4" s="69">
         <f>BG4*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ4" s="50">
+      <c r="BJ4" s="43">
         <f>I4*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>3.0120000289208293</v>
       </c>
-      <c r="BK4" s="50">
+      <c r="BK4" s="43">
         <f>BJ4*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.33318789796769971</v>
       </c>
-      <c r="BL4" s="50">
+      <c r="BL4" s="43">
         <f t="shared" ref="BL4:BL5" si="13">BJ4/BI4</f>
         <v>19.272938646594689</v>
       </c>
-      <c r="BM4" s="50">
+      <c r="BM4" s="43">
         <f t="shared" ref="BM4:BM5" si="14">BK4/BI4</f>
         <v>2.1319753830215245</v>
       </c>
@@ -4702,7 +4697,7 @@
       <c r="U5" s="24">
         <v>0.42933650000000001</v>
       </c>
-      <c r="W5" s="71" t="s">
+      <c r="W5" s="63" t="s">
         <v>97</v>
       </c>
       <c r="X5" s="2"/>
@@ -4731,72 +4726,71 @@
         <f t="shared" si="4"/>
         <v>1.0043106480077921</v>
       </c>
-      <c r="AI5" s="76">
+      <c r="AI5" s="68">
         <f t="shared" si="5"/>
-        <v>1.0003866651070386</v>
-      </c>
-      <c r="AJ5" s="76">
+        <v>1.001044111578594</v>
+      </c>
+      <c r="AJ5" s="68">
         <f t="shared" si="6"/>
-        <v>1.0024870261627283</v>
+        <v>1.001693114134492</v>
       </c>
       <c r="AK5" s="32"/>
       <c r="AL5" s="33">
         <f t="shared" si="7"/>
-        <v>3.7237877887127293E-3</v>
+        <v>3.7228017752489739E-3</v>
       </c>
       <c r="AM5" s="33">
         <f t="shared" si="8"/>
-        <v>7.7440181338633632E-3</v>
+        <v>7.7491074434027181E-3</v>
       </c>
       <c r="AN5" s="33">
         <f t="shared" si="9"/>
-        <v>2.1065211977672944E-3</v>
-      </c>
-      <c r="AO5" s="121">
+        <v>2.1048529542160065E-3</v>
+      </c>
+      <c r="AO5" s="112">
         <v>0</v>
       </c>
-      <c r="AP5" s="56">
+      <c r="AP5" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ5" s="57">
+      <c r="AQ5" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR5" s="47">
+      <c r="AR5" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
-      <c r="AS5" s="41" t="str">
+      <c r="AS5" t="str">
         <f t="shared" si="11"/>
         <v>B6_ref_1</v>
       </c>
-      <c r="AT5" s="50">
+      <c r="AT5" s="43">
         <v>0.359221158885425</v>
       </c>
-      <c r="AU5" s="50">
+      <c r="AU5" s="43">
         <v>22.697206561636399</v>
       </c>
-      <c r="AV5" s="50">
+      <c r="AV5" s="43">
         <v>44.4548477102446</v>
       </c>
-      <c r="AX5" s="50">
+      <c r="AX5" s="43">
         <v>-0.53970856960000002</v>
       </c>
-      <c r="AY5" s="50">
+      <c r="AY5" s="43">
         <v>1.282521574</v>
       </c>
-      <c r="AZ5" s="50">
+      <c r="AZ5" s="43">
         <v>-1.8222301439999999</v>
       </c>
-      <c r="BA5" s="50">
+      <c r="BA5" s="43">
         <v>0.37140650219999999</v>
       </c>
-      <c r="BB5" s="50">
+      <c r="BB5" s="43">
         <v>22.461390439999999</v>
       </c>
-      <c r="BC5" s="50">
+      <c r="BC5" s="43">
         <v>43.988167449999999</v>
       </c>
-      <c r="BD5" s="44"/>
       <c r="BE5">
         <v>265</v>
       </c>
@@ -4810,23 +4804,23 @@
       <c r="BH5" t="s">
         <v>39</v>
       </c>
-      <c r="BI5" s="77">
+      <c r="BI5" s="69">
         <f>BG5*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ5" s="50">
+      <c r="BJ5" s="43">
         <f>I5*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>9.9048847269174694</v>
       </c>
-      <c r="BK5" s="50">
+      <c r="BK5" s="43">
         <f>BJ5*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.38845979713665457</v>
       </c>
-      <c r="BL5" s="50">
+      <c r="BL5" s="43">
         <f t="shared" si="13"/>
         <v>63.378563682109089</v>
       </c>
-      <c r="BM5" s="50">
+      <c r="BM5" s="43">
         <f t="shared" si="14"/>
         <v>2.4856446762936448</v>
       </c>
@@ -4926,37 +4920,37 @@
         <f t="shared" si="4"/>
         <v>1.0077071570383731</v>
       </c>
-      <c r="AI6" s="76">
+      <c r="AI6" s="68">
         <f t="shared" si="5"/>
-        <v>1.0067598334872758</v>
-      </c>
-      <c r="AJ6" s="76">
+        <v>1.0065293924891645</v>
+      </c>
+      <c r="AJ6" s="68">
         <f t="shared" si="6"/>
-        <v>1.0056662825571459</v>
+        <v>1.0046456444970819</v>
       </c>
       <c r="AK6" s="32"/>
       <c r="AL6" s="33">
         <f t="shared" si="7"/>
-        <v>3.7699099609959015E-3</v>
+        <v>3.7689117349450092E-3</v>
       </c>
       <c r="AM6" s="33">
         <f t="shared" si="8"/>
-        <v>7.793352989302926E-3</v>
+        <v>7.7915691397871332E-3</v>
       </c>
       <c r="AN6" s="33">
         <f t="shared" si="9"/>
-        <v>2.1132017540370475E-3</v>
-      </c>
-      <c r="AO6" s="121">
+        <v>2.1110570921584735E-3</v>
+      </c>
+      <c r="AO6" s="112">
         <v>0</v>
       </c>
-      <c r="AP6" s="56">
+      <c r="AP6" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ6" s="57">
+      <c r="AQ6" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR6" s="47">
+      <c r="AR6" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -4964,34 +4958,33 @@
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="AT6" s="50">
+      <c r="AT6" s="43">
         <v>6.9823553262469096</v>
       </c>
-      <c r="AU6" s="50">
+      <c r="AU6" s="43">
         <v>24.3669184468542</v>
       </c>
-      <c r="AV6" s="50">
+      <c r="AV6" s="43">
         <v>47.762096293894203</v>
       </c>
-      <c r="AX6" s="50">
+      <c r="AX6" s="43">
         <v>14.851574149999999</v>
       </c>
-      <c r="AY6" s="50">
+      <c r="AY6" s="43">
         <v>-0.85838254079999998</v>
       </c>
-      <c r="AZ6" s="50">
+      <c r="AZ6" s="43">
         <v>15.70995669</v>
       </c>
-      <c r="BA6" s="50">
+      <c r="BA6" s="43">
         <v>6.9965958060000002</v>
       </c>
-      <c r="BB6" s="50">
+      <c r="BB6" s="43">
         <v>24.09542038</v>
       </c>
-      <c r="BC6" s="50">
+      <c r="BC6" s="43">
         <v>47.223987370000003</v>
       </c>
-      <c r="BD6" s="44"/>
       <c r="BE6">
         <v>265</v>
       </c>
@@ -5005,23 +4998,23 @@
       <c r="BH6" t="s">
         <v>170</v>
       </c>
-      <c r="BI6" s="77">
+      <c r="BI6" s="69">
         <f>BG6*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ6" s="50">
+      <c r="BJ6" s="43">
         <f>I6*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.4178655483113793</v>
       </c>
-      <c r="BK6" s="50">
+      <c r="BK6" s="43">
         <f>BJ6*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32842371830361955</v>
       </c>
-      <c r="BL6" s="50">
+      <c r="BL6" s="43">
         <f t="shared" ref="BL6:BL17" si="16">BJ6/BI6</f>
         <v>15.90211572158638</v>
       </c>
-      <c r="BM6" s="50">
+      <c r="BM6" s="43">
         <f t="shared" ref="BM6:BM17" si="17">BK6/BI6</f>
         <v>2.1600175319199595</v>
       </c>
@@ -5121,37 +5114,37 @@
         <f t="shared" si="4"/>
         <v>0.9951628615034982</v>
       </c>
-      <c r="AI7" s="76">
+      <c r="AI7" s="68">
         <f t="shared" si="5"/>
-        <v>0.99641824052375039</v>
-      </c>
-      <c r="AJ7" s="76">
+        <v>0.99762609234989208</v>
+      </c>
+      <c r="AJ7" s="68">
         <f t="shared" si="6"/>
-        <v>0.99392103287815814</v>
+        <v>0.99373470664282637</v>
       </c>
       <c r="AK7" s="32"/>
       <c r="AL7" s="33">
         <f t="shared" si="7"/>
-        <v>3.7386432612350551E-3</v>
+        <v>3.737653314223861E-3</v>
       </c>
       <c r="AM7" s="33">
         <f t="shared" si="8"/>
-        <v>7.713298460153434E-3</v>
+        <v>7.7226484712750471E-3</v>
       </c>
       <c r="AN7" s="33">
         <f t="shared" si="9"/>
-        <v>2.0885215170103784E-3</v>
-      </c>
-      <c r="AO7" s="121">
+        <v>2.0881299905824179E-3</v>
+      </c>
+      <c r="AO7" s="112">
         <v>0</v>
       </c>
-      <c r="AP7" s="56">
+      <c r="AP7" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ7" s="57">
+      <c r="AQ7" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR7" s="47">
+      <c r="AR7" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -5159,34 +5152,33 @@
         <f t="shared" si="11"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AT7" s="50">
+      <c r="AT7" s="43">
         <v>-3.5713502434924198</v>
       </c>
-      <c r="AU7" s="50">
+      <c r="AU7" s="43">
         <v>18.090066846573698</v>
       </c>
-      <c r="AV7" s="50">
+      <c r="AV7" s="43">
         <v>35.355596284351698</v>
       </c>
-      <c r="AX7" s="50">
+      <c r="AX7" s="43">
         <v>6.6566362139999997</v>
       </c>
-      <c r="AY7" s="50">
+      <c r="AY7" s="43">
         <v>-13.80264891</v>
       </c>
-      <c r="AZ7" s="50">
+      <c r="AZ7" s="43">
         <v>20.459285130000001</v>
       </c>
-      <c r="BA7" s="50">
+      <c r="BA7" s="43">
         <v>-3.5730063489999999</v>
       </c>
-      <c r="BB7" s="50">
+      <c r="BB7" s="43">
         <v>17.941820060000001</v>
       </c>
-      <c r="BC7" s="50">
+      <c r="BC7" s="43">
         <v>35.063444019999999</v>
       </c>
-      <c r="BD7" s="44"/>
       <c r="BE7">
         <v>265</v>
       </c>
@@ -5200,23 +5192,23 @@
       <c r="BH7" t="s">
         <v>39</v>
       </c>
-      <c r="BI7" s="77">
+      <c r="BI7" s="69">
         <f>BG7*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ7" s="50">
+      <c r="BJ7" s="43">
         <f>I7*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>17.089981869851989</v>
       </c>
-      <c r="BK7" s="50">
+      <c r="BK7" s="43">
         <f>BJ7*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.44607485704311811</v>
       </c>
-      <c r="BL7" s="50">
+      <c r="BL7" s="43">
         <f t="shared" si="16"/>
         <v>109.35397373388625</v>
       </c>
-      <c r="BM7" s="50">
+      <c r="BM7" s="43">
         <f t="shared" si="17"/>
         <v>2.8543071942335927</v>
       </c>
@@ -5307,37 +5299,37 @@
         <f t="shared" si="4"/>
         <v>1.0023860907979212</v>
       </c>
-      <c r="AI8" s="76">
+      <c r="AI8" s="68">
         <f t="shared" si="5"/>
-        <v>0.99910377807114037</v>
-      </c>
-      <c r="AJ8" s="76">
+        <v>0.99993936333439959</v>
+      </c>
+      <c r="AJ8" s="68">
         <f t="shared" si="6"/>
-        <v>1.0006852738529772</v>
+        <v>1.0000195594494503</v>
       </c>
       <c r="AK8" s="32"/>
       <c r="AL8" s="33">
         <f t="shared" si="7"/>
-        <v>3.7209137878282954E-3</v>
+        <v>3.7199285353648245E-3</v>
       </c>
       <c r="AM8" s="33">
         <f t="shared" si="8"/>
-        <v>7.7340872733109283E-3</v>
+        <v>7.7405555596813573E-3</v>
       </c>
       <c r="AN8" s="33">
         <f t="shared" si="9"/>
-        <v>2.1027351842483515E-3</v>
-      </c>
-      <c r="AO8" s="121">
+        <v>2.101336321753283E-3</v>
+      </c>
+      <c r="AO8" s="112">
         <v>0</v>
       </c>
-      <c r="AP8" s="56">
+      <c r="AP8" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ8" s="57">
+      <c r="AQ8" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR8" s="47">
+      <c r="AR8" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -5345,34 +5337,33 @@
         <f t="shared" si="11"/>
         <v>B6_ref_2</v>
       </c>
-      <c r="AT8" s="50">
+      <c r="AT8" s="43">
         <v>-0.94152706968220201</v>
       </c>
-      <c r="AU8" s="50">
+      <c r="AU8" s="43">
         <v>21.732150005308199</v>
       </c>
-      <c r="AV8" s="50">
+      <c r="AV8" s="43">
         <v>42.5456389567846</v>
       </c>
-      <c r="AX8" s="50">
+      <c r="AX8" s="43">
         <v>-1.156289044</v>
       </c>
-      <c r="AY8" s="50">
+      <c r="AY8" s="43">
         <v>-0.70441124850000003</v>
       </c>
-      <c r="AZ8" s="50">
+      <c r="AZ8" s="43">
         <v>-0.45187779509999998</v>
       </c>
-      <c r="BA8" s="50">
+      <c r="BA8" s="43">
         <v>-0.93035014599999999</v>
       </c>
-      <c r="BB8" s="50">
+      <c r="BB8" s="43">
         <v>21.515796810000001</v>
       </c>
-      <c r="BC8" s="50">
+      <c r="BC8" s="43">
         <v>42.117851049999999</v>
       </c>
-      <c r="BD8" s="44"/>
       <c r="BE8">
         <v>265</v>
       </c>
@@ -5386,23 +5377,23 @@
       <c r="BH8" t="s">
         <v>39</v>
       </c>
-      <c r="BI8" s="77">
+      <c r="BI8" s="69">
         <f>BG8*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ8" s="50">
+      <c r="BJ8" s="43">
         <f>I8*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>9.8350681459275666</v>
       </c>
-      <c r="BK8" s="50">
+      <c r="BK8" s="43">
         <f>BJ8*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.387899959681965</v>
       </c>
-      <c r="BL8" s="50">
+      <c r="BL8" s="43">
         <f t="shared" si="16"/>
         <v>62.931827072210872</v>
       </c>
-      <c r="BM8" s="50">
+      <c r="BM8" s="43">
         <f t="shared" si="17"/>
         <v>2.4820624343239581</v>
       </c>
@@ -5469,7 +5460,7 @@
       <c r="U9" s="24">
         <v>0.42850050000000001</v>
       </c>
-      <c r="W9" s="71" t="s">
+      <c r="W9" s="63" t="s">
         <v>183</v>
       </c>
       <c r="X9" s="2"/>
@@ -5498,68 +5489,68 @@
         <f t="shared" si="4"/>
         <v>1.0057116133646442</v>
       </c>
-      <c r="AI9" s="76">
+      <c r="AI9" s="68">
         <f t="shared" si="5"/>
-        <v>1.0053714775393894</v>
-      </c>
-      <c r="AJ9" s="76">
+        <v>1.0053348711319792</v>
+      </c>
+      <c r="AJ9" s="68">
         <f t="shared" si="6"/>
-        <v>1.0037984617171607</v>
+        <v>1.0029111055919546</v>
       </c>
       <c r="AL9" s="33">
         <f t="shared" si="7"/>
-        <v>3.7717592557978421E-3</v>
+        <v>3.7707605400763033E-3</v>
       </c>
       <c r="AM9" s="33">
         <f t="shared" si="8"/>
-        <v>7.7826056912713801E-3</v>
+        <v>7.7823223201583048E-3</v>
       </c>
       <c r="AN9" s="33">
         <f t="shared" si="9"/>
-        <v>2.1092769110312277E-3</v>
-      </c>
-      <c r="AO9" s="121">
+        <v>2.1074123138454925E-3</v>
+      </c>
+      <c r="AO9" s="112">
         <v>0</v>
       </c>
-      <c r="AP9" s="56">
+      <c r="AP9" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ9" s="57">
+      <c r="AQ9" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR9" s="47">
+      <c r="AR9" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
-      <c r="AS9" s="41" t="str">
+      <c r="AS9" t="str">
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="AT9" s="50">
+      <c r="AT9" s="43">
         <v>5.57244533353684</v>
       </c>
-      <c r="AU9" s="50">
+      <c r="AU9" s="43">
         <v>23.366934635269601</v>
       </c>
-      <c r="AV9" s="50">
+      <c r="AV9" s="43">
         <v>45.7807904317755</v>
       </c>
-      <c r="AX9" s="50">
+      <c r="AX9" s="43">
         <v>16.03665647</v>
       </c>
-      <c r="AY9" s="50">
+      <c r="AY9" s="43">
         <v>-4.8656873389999999</v>
       </c>
-      <c r="AZ9" s="50">
+      <c r="AZ9" s="43">
         <v>20.902343810000001</v>
       </c>
-      <c r="BA9" s="50">
+      <c r="BA9" s="43">
         <v>5.5854845649999998</v>
       </c>
-      <c r="BB9" s="50">
+      <c r="BB9" s="43">
         <v>23.117269400000001</v>
       </c>
-      <c r="BC9" s="50">
+      <c r="BC9" s="43">
         <v>45.286402389999999</v>
       </c>
       <c r="BE9">
@@ -5575,23 +5566,23 @@
       <c r="BH9" t="s">
         <v>170</v>
       </c>
-      <c r="BI9" s="77">
+      <c r="BI9" s="69">
         <f>BG9*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ9" s="50">
+      <c r="BJ9" s="43">
         <f>I9*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.4132419336762863</v>
       </c>
-      <c r="BK9" s="50">
+      <c r="BK9" s="43">
         <f>BJ9*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32838664297549441</v>
       </c>
-      <c r="BL9" s="50">
+      <c r="BL9" s="43">
         <f t="shared" si="16"/>
         <v>15.871706563794037</v>
       </c>
-      <c r="BM9" s="50">
+      <c r="BM9" s="43">
         <f t="shared" si="17"/>
         <v>2.1597736903388287</v>
       </c>
@@ -5687,36 +5678,36 @@
         <f t="shared" si="4"/>
         <v>1.0049378092932522</v>
       </c>
-      <c r="AI10" s="76">
+      <c r="AI10" s="68">
         <f t="shared" si="5"/>
-        <v>0.99038486066119624</v>
-      </c>
-      <c r="AJ10" s="76">
+        <v>0.99242587706510954</v>
+      </c>
+      <c r="AJ10" s="68">
         <f t="shared" si="6"/>
-        <v>1.0030741222584652</v>
+        <v>1.0022383915761395</v>
       </c>
       <c r="AL10" s="33">
         <f t="shared" si="7"/>
-        <v>3.7569185081275437E-3</v>
+        <v>3.755923722054483E-3</v>
       </c>
       <c r="AM10" s="33">
         <f t="shared" si="8"/>
-        <v>7.666593916106852E-3</v>
+        <v>7.6823934750121364E-3</v>
       </c>
       <c r="AN10" s="33">
         <f t="shared" si="9"/>
-        <v>2.107754859987872E-3</v>
-      </c>
-      <c r="AO10" s="121">
+        <v>2.1059987430985735E-3</v>
+      </c>
+      <c r="AO10" s="112">
         <v>0</v>
       </c>
-      <c r="AP10" s="56">
+      <c r="AP10" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ10" s="57">
+      <c r="AQ10" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR10" s="47">
+      <c r="AR10" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -5724,31 +5715,31 @@
         <f t="shared" si="11"/>
         <v>DI</v>
       </c>
-      <c r="AT10" s="50">
+      <c r="AT10" s="43">
         <v>-10.0998672074388</v>
       </c>
-      <c r="AU10" s="50">
+      <c r="AU10" s="43">
         <v>23.078452800784302</v>
       </c>
-      <c r="AV10" s="50">
+      <c r="AV10" s="43">
         <v>45.209547777639301</v>
       </c>
-      <c r="AX10" s="50">
+      <c r="AX10" s="43">
         <v>14.457971540000001</v>
       </c>
-      <c r="AY10" s="50">
+      <c r="AY10" s="43">
         <v>-34.815304670000003</v>
       </c>
-      <c r="AZ10" s="50">
+      <c r="AZ10" s="43">
         <v>49.273276199999998</v>
       </c>
-      <c r="BA10" s="50">
+      <c r="BA10" s="43">
         <v>-10.178666570000001</v>
       </c>
-      <c r="BB10" s="50">
+      <c r="BB10" s="43">
         <v>22.853627360000001</v>
       </c>
-      <c r="BC10" s="50">
+      <c r="BC10" s="43">
         <v>44.764460249999999</v>
       </c>
       <c r="BE10">
@@ -5764,23 +5755,23 @@
       <c r="BH10" t="s">
         <v>39</v>
       </c>
-      <c r="BI10" s="77">
+      <c r="BI10" s="69">
         <f>BG10*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ10" s="50">
+      <c r="BJ10" s="43">
         <f>I10*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>7.9745256167661447</v>
       </c>
-      <c r="BK10" s="50">
+      <c r="BK10" s="43">
         <f>BJ10*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.3729808476444097</v>
       </c>
-      <c r="BL10" s="50">
+      <c r="BL10" s="43">
         <f t="shared" si="16"/>
         <v>51.026740196512598</v>
       </c>
-      <c r="BM10" s="50">
+      <c r="BM10" s="43">
         <f t="shared" si="17"/>
         <v>2.386599244350319</v>
       </c>
@@ -5847,16 +5838,16 @@
       <c r="U11">
         <v>0.42918780000000001</v>
       </c>
-      <c r="W11" s="126" t="s">
+      <c r="W11" s="117" t="s">
         <v>181</v>
       </c>
       <c r="X11">
         <f>scale_normalization!Y3</f>
-        <v>1.058002378564959</v>
-      </c>
-      <c r="Y11" s="127">
+        <v>0.91041071995587675</v>
+      </c>
+      <c r="Y11" s="118">
         <f>scale_normalization!Z3</f>
-        <v>0.9378376950888252</v>
+        <v>0.87174417962681128</v>
       </c>
       <c r="AA11" s="28">
         <f t="shared" si="1"/>
@@ -5882,68 +5873,68 @@
         <f t="shared" si="4"/>
         <v>1.0054625917600983</v>
       </c>
-      <c r="AI11" s="76">
+      <c r="AI11" s="68">
         <f t="shared" si="5"/>
-        <v>1.0060330611367791</v>
-      </c>
-      <c r="AJ11" s="76">
+        <v>1.005904116762288</v>
+      </c>
+      <c r="AJ11" s="68">
         <f t="shared" si="6"/>
-        <v>1.0035653623389771</v>
+        <v>1.0026946235102945</v>
       </c>
       <c r="AL11" s="33">
         <f t="shared" si="7"/>
-        <v>3.7751570245948877E-3</v>
+        <v>3.7741574091857267E-3</v>
       </c>
       <c r="AM11" s="33">
         <f t="shared" si="8"/>
-        <v>7.7877270264050356E-3</v>
+        <v>7.786728864784989E-3</v>
       </c>
       <c r="AN11" s="33">
         <f t="shared" si="9"/>
-        <v>2.1087871004216979E-3</v>
-      </c>
-      <c r="AO11" s="121">
+        <v>2.1069574210817433E-3</v>
+      </c>
+      <c r="AO11" s="112">
         <v>0</v>
       </c>
-      <c r="AP11" s="56">
+      <c r="AP11" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ11" s="57">
+      <c r="AQ11" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR11" s="47">
+      <c r="AR11" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS11" s="41" t="str">
+      <c r="AS11" t="str">
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="AT11" s="50">
+      <c r="AT11" s="43">
         <v>6.2757163469961901</v>
       </c>
-      <c r="AU11" s="50">
+      <c r="AU11" s="43">
         <v>23.235402273854501</v>
       </c>
-      <c r="AV11" s="50">
+      <c r="AV11" s="43">
         <v>45.520315450628203</v>
       </c>
-      <c r="AX11" s="50">
+      <c r="AX11" s="43">
         <v>17.15182347</v>
       </c>
-      <c r="AY11" s="50">
+      <c r="AY11" s="43">
         <v>-4.5745335200000001</v>
       </c>
-      <c r="AZ11" s="50">
+      <c r="AZ11" s="43">
         <v>21.726356989999999</v>
       </c>
-      <c r="BA11" s="50">
+      <c r="BA11" s="43">
         <v>6.2886449750000004</v>
       </c>
-      <c r="BB11" s="50">
+      <c r="BB11" s="43">
         <v>22.988533220000001</v>
       </c>
-      <c r="BC11" s="50">
+      <c r="BC11" s="43">
         <v>45.031522729999999</v>
       </c>
       <c r="BE11">
@@ -5959,23 +5950,23 @@
       <c r="BH11" t="s">
         <v>170</v>
       </c>
-      <c r="BI11" s="77">
+      <c r="BI11" s="69">
         <f>BG11*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ11" s="50">
+      <c r="BJ11" s="43">
         <f>I11*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.2611250121817261</v>
       </c>
-      <c r="BK11" s="50">
+      <c r="BK11" s="43">
         <f>BJ11*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32716686468017736</v>
       </c>
-      <c r="BL11" s="50">
+      <c r="BL11" s="43">
         <f t="shared" si="16"/>
         <v>14.871245272425968</v>
       </c>
-      <c r="BM11" s="50">
+      <c r="BM11" s="43">
         <f t="shared" si="17"/>
         <v>2.151751302319628</v>
       </c>
@@ -6047,11 +6038,11 @@
       </c>
       <c r="X12" s="35">
         <f>scale_normalization!Y4</f>
-        <v>-1.8840219242949102E-5</v>
+        <v>6.9469397524750496E-4</v>
       </c>
       <c r="Y12" s="36">
         <f>scale_normalization!Z4</f>
-        <v>-1.5500612170959347E-3</v>
+        <v>-2.0580238405652936E-3</v>
       </c>
       <c r="AA12" s="28">
         <f t="shared" si="1"/>
@@ -6077,68 +6068,68 @@
         <f t="shared" si="4"/>
         <v>0.99378130442821833</v>
       </c>
-      <c r="AI12" s="76">
+      <c r="AI12" s="68">
         <f t="shared" si="5"/>
-        <v>0.99618538617244334</v>
-      </c>
-      <c r="AJ12" s="76">
+        <v>0.99742547509365276</v>
+      </c>
+      <c r="AJ12" s="68">
         <f t="shared" si="6"/>
-        <v>0.99262691753881871</v>
+        <v>0.99253196355980511</v>
       </c>
       <c r="AL12" s="33">
         <f t="shared" si="7"/>
-        <v>3.7391847904357902E-3</v>
+        <v>3.7381947000342869E-3</v>
       </c>
       <c r="AM12" s="33">
         <f t="shared" si="8"/>
-        <v>7.7114959288103382E-3</v>
+        <v>7.7210954880891731E-3</v>
       </c>
       <c r="AN12" s="33">
         <f t="shared" si="9"/>
-        <v>2.0858021986316566E-3</v>
-      </c>
-      <c r="AO12" s="121">
+        <v>2.0856026722892822E-3</v>
+      </c>
+      <c r="AO12" s="112">
         <v>0</v>
       </c>
-      <c r="AP12" s="56">
+      <c r="AP12" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ12" s="57">
+      <c r="AQ12" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR12" s="47">
+      <c r="AR12" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS12" s="41" t="str">
+      <c r="AS12" t="str">
         <f t="shared" si="11"/>
         <v>S2_ref_1</v>
       </c>
-      <c r="AT12" s="50">
+      <c r="AT12" s="43">
         <v>-3.7789086077021299</v>
       </c>
-      <c r="AU12" s="50">
+      <c r="AU12" s="43">
         <v>17.3910621684267</v>
       </c>
-      <c r="AV12" s="50">
+      <c r="AV12" s="43">
         <v>33.978406326581499</v>
       </c>
-      <c r="AX12" s="50">
+      <c r="AX12" s="43">
         <v>7.0098620809999996</v>
       </c>
-      <c r="AY12" s="50">
+      <c r="AY12" s="43">
         <v>-14.575141520000001</v>
       </c>
-      <c r="AZ12" s="50">
+      <c r="AZ12" s="43">
         <v>21.5850036</v>
       </c>
-      <c r="BA12" s="50">
+      <c r="BA12" s="43">
         <v>-3.7826397200000001</v>
       </c>
-      <c r="BB12" s="50">
+      <c r="BB12" s="43">
         <v>17.254452000000001</v>
       </c>
-      <c r="BC12" s="50">
+      <c r="BC12" s="43">
         <v>33.709358479999999</v>
       </c>
       <c r="BE12">
@@ -6154,23 +6145,23 @@
       <c r="BH12" t="s">
         <v>39</v>
       </c>
-      <c r="BI12" s="77">
+      <c r="BI12" s="69">
         <f>BG12*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ12" s="50">
+      <c r="BJ12" s="43">
         <f>I12*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>3.6625426080784145</v>
       </c>
-      <c r="BK12" s="50">
+      <c r="BK12" s="43">
         <f>BJ12*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.33840439663490651</v>
       </c>
-      <c r="BL12" s="50">
+      <c r="BL12" s="43">
         <f t="shared" si="16"/>
         <v>23.435577124255598</v>
       </c>
-      <c r="BM12" s="50">
+      <c r="BM12" s="43">
         <f t="shared" si="17"/>
         <v>2.1653542866728439</v>
       </c>
@@ -6261,68 +6252,68 @@
         <f t="shared" si="4"/>
         <v>1.0040343543858852</v>
       </c>
-      <c r="AI13" s="76">
+      <c r="AI13" s="68">
         <f t="shared" si="5"/>
-        <v>1.0001712643600078</v>
-      </c>
-      <c r="AJ13" s="76">
+        <v>1.000858634704451</v>
+      </c>
+      <c r="AJ13" s="68">
         <f t="shared" si="6"/>
-        <v>1.002228375883468</v>
+        <v>1.0014528802854337</v>
       </c>
       <c r="AL13" s="33">
         <f t="shared" si="7"/>
-        <v>3.7252495658275614E-3</v>
+        <v>3.7242631653031039E-3</v>
       </c>
       <c r="AM13" s="33">
         <f t="shared" si="8"/>
-        <v>7.7423507113064316E-3</v>
+        <v>7.7476716622923991E-3</v>
       </c>
       <c r="AN13" s="33">
         <f t="shared" si="9"/>
-        <v>2.1059776971714254E-3</v>
-      </c>
-      <c r="AO13" s="121">
+        <v>2.1043481519769196E-3</v>
+      </c>
+      <c r="AO13" s="112">
         <v>0</v>
       </c>
-      <c r="AP13" s="56">
+      <c r="AP13" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ13" s="57">
+      <c r="AQ13" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR13" s="47">
+      <c r="AR13" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS13" s="41" t="str">
+      <c r="AS13" t="str">
         <f t="shared" si="11"/>
         <v>B6_ref_1</v>
       </c>
-      <c r="AT13" s="50">
+      <c r="AT13" s="43">
         <v>0.13959532425555901</v>
       </c>
-      <c r="AU13" s="50">
+      <c r="AU13" s="43">
         <v>22.5589202485119</v>
       </c>
-      <c r="AV13" s="50">
+      <c r="AV13" s="43">
         <v>44.181166769186902</v>
       </c>
-      <c r="AX13" s="50">
+      <c r="AX13" s="43">
         <v>8.2241945280000006E-2</v>
       </c>
-      <c r="AY13" s="50">
+      <c r="AY13" s="43">
         <v>0.22102332359999999</v>
       </c>
-      <c r="AZ13" s="50">
+      <c r="AZ13" s="43">
         <v>-0.13878137830000001</v>
       </c>
-      <c r="BA13" s="50">
+      <c r="BA13" s="43">
         <v>0.15163263439999999</v>
       </c>
-      <c r="BB13" s="50">
+      <c r="BB13" s="43">
         <v>22.325942359999999</v>
       </c>
-      <c r="BC13" s="50">
+      <c r="BC13" s="43">
         <v>43.720161279999999</v>
       </c>
       <c r="BE13">
@@ -6338,23 +6329,23 @@
       <c r="BH13" t="s">
         <v>39</v>
       </c>
-      <c r="BI13" s="77">
+      <c r="BI13" s="69">
         <f>BG13*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ13" s="50">
+      <c r="BJ13" s="43">
         <f>I13*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>9.6085110288080102</v>
       </c>
-      <c r="BK13" s="50">
+      <c r="BK13" s="43">
         <f>BJ13*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.38608326860383324</v>
       </c>
-      <c r="BL13" s="50">
+      <c r="BL13" s="43">
         <f t="shared" si="16"/>
         <v>61.482151980488176</v>
       </c>
-      <c r="BM13" s="50">
+      <c r="BM13" s="43">
         <f t="shared" si="17"/>
         <v>2.4704379405150405</v>
       </c>
@@ -6445,68 +6436,68 @@
         <f t="shared" si="4"/>
         <v>1.0053599727245706</v>
       </c>
-      <c r="AI14" s="76">
+      <c r="AI14" s="68">
         <f t="shared" si="5"/>
-        <v>1.0051454300667848</v>
-      </c>
-      <c r="AJ14" s="76">
+        <v>1.0051403613834002</v>
+      </c>
+      <c r="AJ14" s="68">
         <f t="shared" si="6"/>
-        <v>1.0034693036318658</v>
+        <v>1.0026054116498198</v>
       </c>
       <c r="AL14" s="33">
         <f t="shared" si="7"/>
-        <v>3.767156216784404E-3</v>
+        <v>3.7661587198913001E-3</v>
       </c>
       <c r="AM14" s="33">
         <f t="shared" si="8"/>
-        <v>7.7808558521461494E-3</v>
+        <v>7.7808166153416104E-3</v>
       </c>
       <c r="AN14" s="33">
         <f t="shared" si="9"/>
-        <v>2.1085852527194544E-3</v>
-      </c>
-      <c r="AO14" s="121">
+        <v>2.1067699606256199E-3</v>
+      </c>
+      <c r="AO14" s="112">
         <v>0</v>
       </c>
-      <c r="AP14" s="56">
+      <c r="AP14" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ14" s="57">
+      <c r="AQ14" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR14" s="47">
+      <c r="AR14" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS14" s="41" t="str">
+      <c r="AS14" t="str">
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="AT14" s="50">
+      <c r="AT14" s="43">
         <v>5.3435875779892497</v>
       </c>
-      <c r="AU14" s="50">
+      <c r="AU14" s="43">
         <v>23.190561718908899</v>
       </c>
-      <c r="AV14" s="50">
+      <c r="AV14" s="43">
         <v>45.431524384704502</v>
       </c>
-      <c r="AX14" s="50">
+      <c r="AX14" s="43">
         <v>14.39377354</v>
       </c>
-      <c r="AY14" s="50">
+      <c r="AY14" s="43">
         <v>-3.6809189290000002</v>
       </c>
-      <c r="AZ14" s="50">
+      <c r="AZ14" s="43">
         <v>18.074692469999999</v>
       </c>
-      <c r="BA14" s="50">
+      <c r="BA14" s="43">
         <v>5.3564273069999997</v>
       </c>
-      <c r="BB14" s="50">
+      <c r="BB14" s="43">
         <v>22.94455533</v>
       </c>
-      <c r="BC14" s="50">
+      <c r="BC14" s="43">
         <v>44.944459549999998</v>
       </c>
       <c r="BE14">
@@ -6522,23 +6513,23 @@
       <c r="BH14" t="s">
         <v>170</v>
       </c>
-      <c r="BI14" s="77">
+      <c r="BI14" s="69">
         <f>BG14*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ14" s="50">
+      <c r="BJ14" s="43">
         <f>I14*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.3526725819565679</v>
       </c>
-      <c r="BK14" s="50">
+      <c r="BK14" s="43">
         <f>BJ14*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32790095617705511</v>
       </c>
-      <c r="BL14" s="50">
+      <c r="BL14" s="43">
         <f t="shared" si="16"/>
         <v>15.473346596714352</v>
       </c>
-      <c r="BM14" s="50">
+      <c r="BM14" s="43">
         <f t="shared" si="17"/>
         <v>2.1565793656260164</v>
       </c>
@@ -6629,36 +6620,36 @@
         <f t="shared" si="4"/>
         <v>1.0064676550191509</v>
       </c>
-      <c r="AI15" s="76">
+      <c r="AI15" s="68">
         <f t="shared" si="5"/>
-        <v>1.0059478122346599</v>
-      </c>
-      <c r="AJ15" s="76">
+        <v>1.0058307690770196</v>
+      </c>
+      <c r="AJ15" s="68">
         <f t="shared" si="6"/>
-        <v>1.0045061407432356</v>
+        <v>1.0035683135664484</v>
       </c>
       <c r="AL15" s="33">
         <f t="shared" si="7"/>
-        <v>3.7740119437831986E-3</v>
+        <v>3.7730126315774323E-3</v>
       </c>
       <c r="AM15" s="33">
         <f t="shared" si="8"/>
-        <v>7.7870671125268029E-3</v>
+        <v>7.7861610785233291E-3</v>
       </c>
       <c r="AN15" s="33">
         <f t="shared" si="9"/>
-        <v>2.110763953587128E-3</v>
-      </c>
-      <c r="AO15" s="121">
+        <v>2.1087933018218777E-3</v>
+      </c>
+      <c r="AO15" s="112">
         <v>0</v>
       </c>
-      <c r="AP15" s="56">
+      <c r="AP15" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ15" s="57">
+      <c r="AQ15" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR15" s="47">
+      <c r="AR15" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
@@ -6666,31 +6657,31 @@
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_3</v>
       </c>
-      <c r="AT15" s="50">
+      <c r="AT15" s="43">
         <v>6.1596227211071497</v>
       </c>
-      <c r="AU15" s="50">
+      <c r="AU15" s="43">
         <v>23.745401762334801</v>
       </c>
-      <c r="AV15" s="50">
+      <c r="AV15" s="43">
         <v>46.530448225756899</v>
       </c>
-      <c r="AX15" s="50">
+      <c r="AX15" s="43">
         <v>16.679833429999999</v>
       </c>
-      <c r="AY15" s="50">
+      <c r="AY15" s="43">
         <v>-4.3336183510000001</v>
       </c>
-      <c r="AZ15" s="50">
+      <c r="AZ15" s="43">
         <v>21.01345178</v>
       </c>
-      <c r="BA15" s="50">
+      <c r="BA15" s="43">
         <v>6.1731075390000001</v>
       </c>
-      <c r="BB15" s="50">
+      <c r="BB15" s="43">
         <v>23.48766578</v>
       </c>
-      <c r="BC15" s="50">
+      <c r="BC15" s="43">
         <v>46.019903290000002</v>
       </c>
       <c r="BE15">
@@ -6706,23 +6697,23 @@
       <c r="BH15" t="s">
         <v>170</v>
       </c>
-      <c r="BI15" s="77">
+      <c r="BI15" s="69">
         <f>BG15*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ15" s="50">
+      <c r="BJ15" s="43">
         <f>I15*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.2375445775427525</v>
       </c>
-      <c r="BK15" s="50">
+      <c r="BK15" s="43">
         <f>BJ15*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.3269777805067392</v>
       </c>
-      <c r="BL15" s="50">
+      <c r="BL15" s="43">
         <f t="shared" si="16"/>
         <v>14.716158567685026</v>
       </c>
-      <c r="BM15" s="50">
+      <c r="BM15" s="43">
         <f t="shared" si="17"/>
         <v>2.1505077102558618</v>
       </c>
@@ -6813,36 +6804,36 @@
         <f t="shared" si="4"/>
         <v>0.99474403428411884</v>
       </c>
-      <c r="AI16" s="76">
+      <c r="AI16" s="68">
         <f t="shared" si="5"/>
-        <v>0.99610224211658405</v>
-      </c>
-      <c r="AJ16" s="76">
+        <v>0.99735384017979356</v>
+      </c>
+      <c r="AJ16" s="68">
         <f t="shared" si="6"/>
-        <v>0.99352872594288855</v>
+        <v>0.99337011057906566</v>
       </c>
       <c r="AL16" s="33">
         <f t="shared" si="7"/>
-        <v>3.7395411063999877E-3</v>
+        <v>3.7385509216503751E-3</v>
       </c>
       <c r="AM16" s="33">
         <f t="shared" si="8"/>
-        <v>7.7108523085995181E-3</v>
+        <v>7.7205409604337253E-3</v>
       </c>
       <c r="AN16" s="33">
         <f t="shared" si="9"/>
-        <v>2.0876971643219054E-3</v>
-      </c>
-      <c r="AO16" s="121">
+        <v>2.0873638666158321E-3</v>
+      </c>
+      <c r="AO16" s="112">
         <v>0</v>
       </c>
-      <c r="AP16" s="56">
+      <c r="AP16" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ16" s="57">
+      <c r="AQ16" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR16" s="47">
+      <c r="AR16" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
@@ -6850,31 +6841,31 @@
         <f t="shared" si="11"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AT16" s="50">
+      <c r="AT16" s="43">
         <v>-3.8910374902335598</v>
       </c>
-      <c r="AU16" s="50">
+      <c r="AU16" s="43">
         <v>17.879824476930899</v>
       </c>
-      <c r="AV16" s="50">
+      <c r="AV16" s="43">
         <v>34.941280181798497</v>
       </c>
-      <c r="AX16" s="50">
+      <c r="AX16" s="43">
         <v>7.1029978910000002</v>
       </c>
-      <c r="AY16" s="50">
+      <c r="AY16" s="43">
         <v>-14.893050089999999</v>
       </c>
-      <c r="AZ16" s="50">
+      <c r="AZ16" s="43">
         <v>21.99604798</v>
       </c>
-      <c r="BA16" s="50">
+      <c r="BA16" s="43">
         <v>-3.895026101</v>
       </c>
-      <c r="BB16" s="50">
+      <c r="BB16" s="43">
         <v>17.735485740000001</v>
       </c>
-      <c r="BC16" s="50">
+      <c r="BC16" s="43">
         <v>34.656884159999997</v>
       </c>
       <c r="BE16">
@@ -6890,23 +6881,23 @@
       <c r="BH16" t="s">
         <v>39</v>
       </c>
-      <c r="BI16" s="77">
+      <c r="BI16" s="69">
         <f>BG16*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ16" s="50">
+      <c r="BJ16" s="43">
         <f>I16*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>3.9394971247204844</v>
       </c>
-      <c r="BK16" s="50">
+      <c r="BK16" s="43">
         <f>BJ16*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.34062520878960229</v>
       </c>
-      <c r="BL16" s="50">
+      <c r="BL16" s="43">
         <f t="shared" si="16"/>
         <v>25.207730960871714</v>
       </c>
-      <c r="BM16" s="50">
+      <c r="BM16" s="43">
         <f t="shared" si="17"/>
         <v>2.179564637267827</v>
       </c>
@@ -6993,68 +6984,68 @@
         <f t="shared" si="4"/>
         <v>1.0044001925480899</v>
       </c>
-      <c r="AI17" s="76">
+      <c r="AI17" s="68">
         <f t="shared" si="5"/>
-        <v>0.99310021363223033</v>
-      </c>
-      <c r="AJ17" s="76">
+        <v>0.9947668054279567</v>
+      </c>
+      <c r="AJ17" s="68">
         <f t="shared" si="6"/>
-        <v>1.0025708516884744</v>
+        <v>1.001770970173647</v>
       </c>
       <c r="AL17" s="33">
         <f t="shared" si="7"/>
-        <v>3.7567725714819484E-3</v>
+        <v>3.7557778240511265E-3</v>
       </c>
       <c r="AM17" s="33">
         <f t="shared" si="8"/>
-        <v>7.6876135312026585E-3</v>
+        <v>7.7005146598742155E-3</v>
       </c>
       <c r="AN17" s="33">
         <f t="shared" si="9"/>
-        <v>2.1066973399439907E-3</v>
-      </c>
-      <c r="AO17" s="121">
+        <v>2.1050165527390537E-3</v>
+      </c>
+      <c r="AO17" s="112">
         <v>0</v>
       </c>
-      <c r="AP17" s="56">
+      <c r="AP17" s="49">
         <v>0.18325645634287266</v>
       </c>
-      <c r="AQ17" s="57">
+      <c r="AQ17" s="50">
         <v>9.0490249769565087E-2</v>
       </c>
-      <c r="AR17" s="47">
+      <c r="AR17" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS17" s="41" t="str">
+      <c r="AS17" t="str">
         <f t="shared" si="11"/>
         <v>DI</v>
       </c>
-      <c r="AT17" s="50">
+      <c r="AT17" s="43">
         <v>-7.2725212903335104</v>
       </c>
-      <c r="AU17" s="50">
+      <c r="AU17" s="43">
         <v>22.792929757643901</v>
       </c>
-      <c r="AV17" s="50">
+      <c r="AV17" s="43">
         <v>44.644312779463498</v>
       </c>
-      <c r="AX17" s="50">
+      <c r="AX17" s="43">
         <v>13.725240319999999</v>
       </c>
-      <c r="AY17" s="50">
+      <c r="AY17" s="43">
         <v>-28.33536483</v>
       </c>
-      <c r="AZ17" s="50">
+      <c r="AZ17" s="43">
         <v>42.060605150000001</v>
       </c>
-      <c r="BA17" s="50">
+      <c r="BA17" s="43">
         <v>-7.3050622580000004</v>
       </c>
-      <c r="BB17" s="50">
+      <c r="BB17" s="43">
         <v>22.56512682</v>
       </c>
-      <c r="BC17" s="50">
+      <c r="BC17" s="43">
         <v>44.193449379999997</v>
       </c>
       <c r="BE17">
@@ -7070,23 +7061,23 @@
       <c r="BH17" t="s">
         <v>39</v>
       </c>
-      <c r="BI17" s="77">
+      <c r="BI17" s="69">
         <f>BG17*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ17" s="50">
+      <c r="BJ17" s="43">
         <f>I17*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>6.3978730261994317</v>
       </c>
-      <c r="BK17" s="50">
+      <c r="BK17" s="43">
         <f>BJ17*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.36033816075373781</v>
       </c>
-      <c r="BL17" s="50">
+      <c r="BL17" s="43">
         <f t="shared" si="16"/>
         <v>40.938184966360723</v>
       </c>
-      <c r="BM17" s="50">
+      <c r="BM17" s="43">
         <f t="shared" si="17"/>
         <v>2.3057022568229555</v>
       </c>
@@ -7116,22 +7107,15 @@
       <c r="AE18" s="31"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
       <c r="AL18" s="33"/>
       <c r="AM18" s="33"/>
       <c r="AN18" s="33"/>
       <c r="AO18" s="33"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="8"/>
     </row>
     <row r="19" spans="1:65">
       <c r="C19" s="24"/>
@@ -7158,22 +7142,15 @@
       <c r="AE19" s="31"/>
       <c r="AF19" s="31"/>
       <c r="AG19" s="31"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
       <c r="AN19" s="33"/>
       <c r="AO19" s="33"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="8"/>
     </row>
     <row r="20" spans="1:65">
       <c r="C20" s="24"/>
@@ -7200,22 +7177,15 @@
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="31"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
       <c r="AL20" s="33"/>
       <c r="AM20" s="33"/>
       <c r="AN20" s="33"/>
       <c r="AO20" s="33"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="48"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="8"/>
     </row>
     <row r="21" spans="1:65">
       <c r="C21" s="24"/>
@@ -7242,22 +7212,15 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
       <c r="AG21" s="31"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
       <c r="AL21" s="33"/>
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="48"/>
-      <c r="BC21" s="48"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="8"/>
     </row>
     <row r="22" spans="1:65">
       <c r="C22" s="24"/>
@@ -7284,22 +7247,15 @@
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
       <c r="AG22" s="31"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="68"/>
       <c r="AL22" s="33"/>
       <c r="AM22" s="33"/>
       <c r="AN22" s="33"/>
       <c r="AO22" s="33"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="8"/>
     </row>
     <row r="23" spans="1:65">
       <c r="C23" s="24"/>
@@ -7326,22 +7282,15 @@
       <c r="AE23" s="31"/>
       <c r="AF23" s="31"/>
       <c r="AG23" s="31"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="68"/>
       <c r="AL23" s="33"/>
       <c r="AM23" s="33"/>
       <c r="AN23" s="33"/>
       <c r="AO23" s="33"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="8"/>
     </row>
     <row r="24" spans="1:65">
       <c r="C24" s="24"/>
@@ -7368,39 +7317,32 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
       <c r="AL24" s="33"/>
       <c r="AM24" s="33"/>
       <c r="AN24" s="33"/>
       <c r="AO24" s="33"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="48"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="8"/>
     </row>
     <row r="25" spans="1:65">
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
@@ -7410,22 +7352,15 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
       <c r="AL25" s="33"/>
       <c r="AM25" s="33"/>
       <c r="AN25" s="33"/>
       <c r="AO25" s="33"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="8"/>
     </row>
     <row r="26" spans="1:65">
       <c r="C26" s="24"/>
@@ -7452,22 +7387,15 @@
       <c r="AE26" s="31"/>
       <c r="AF26" s="31"/>
       <c r="AG26" s="31"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
       <c r="AL26" s="33"/>
       <c r="AM26" s="33"/>
       <c r="AN26" s="33"/>
       <c r="AO26" s="33"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="48"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="48"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="8"/>
     </row>
     <row r="27" spans="1:65">
       <c r="C27" s="24"/>
@@ -7494,22 +7422,15 @@
       <c r="AE27" s="31"/>
       <c r="AF27" s="31"/>
       <c r="AG27" s="31"/>
-      <c r="AI27" s="76"/>
-      <c r="AJ27" s="76"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
       <c r="AL27" s="33"/>
       <c r="AM27" s="33"/>
       <c r="AN27" s="33"/>
       <c r="AO27" s="33"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="48"/>
-      <c r="BB27" s="48"/>
-      <c r="BC27" s="48"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="8"/>
     </row>
     <row r="28" spans="1:65">
       <c r="C28" s="24"/>
@@ -7536,22 +7457,15 @@
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
       <c r="AG28" s="31"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="68"/>
       <c r="AL28" s="33"/>
       <c r="AM28" s="33"/>
       <c r="AN28" s="33"/>
       <c r="AO28" s="33"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="8"/>
     </row>
     <row r="29" spans="1:65">
       <c r="C29" s="24"/>
@@ -7578,22 +7492,15 @@
       <c r="AE29" s="31"/>
       <c r="AF29" s="31"/>
       <c r="AG29" s="31"/>
-      <c r="AI29" s="76"/>
-      <c r="AJ29" s="76"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="68"/>
       <c r="AL29" s="33"/>
       <c r="AM29" s="33"/>
       <c r="AN29" s="33"/>
       <c r="AO29" s="33"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="48"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="48"/>
-      <c r="AZ29" s="48"/>
-      <c r="BA29" s="48"/>
-      <c r="BB29" s="48"/>
-      <c r="BC29" s="48"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="8"/>
     </row>
     <row r="30" spans="1:65">
       <c r="C30" s="24"/>
@@ -7620,22 +7527,15 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
       <c r="AG30" s="31"/>
-      <c r="AI30" s="76"/>
-      <c r="AJ30" s="76"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="68"/>
       <c r="AL30" s="33"/>
       <c r="AM30" s="33"/>
       <c r="AN30" s="33"/>
       <c r="AO30" s="33"/>
-      <c r="AP30" s="60"/>
+      <c r="AP30" s="53"/>
       <c r="AQ30" s="32"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="48"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="45"/>
-      <c r="AZ30" s="45"/>
-      <c r="BA30" s="45"/>
-      <c r="BB30" s="45"/>
-      <c r="BC30" s="45"/>
+      <c r="AR30" s="8"/>
     </row>
     <row r="31" spans="1:65">
       <c r="C31" s="24"/>
@@ -7662,20 +7562,13 @@
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
       <c r="AG31" s="31"/>
-      <c r="AI31" s="76"/>
-      <c r="AJ31" s="76"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="68"/>
       <c r="AL31" s="33"/>
       <c r="AM31" s="33"/>
       <c r="AN31" s="33"/>
       <c r="AO31" s="33"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="48"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="45"/>
-      <c r="AZ31" s="45"/>
-      <c r="BA31" s="45"/>
-      <c r="BB31" s="45"/>
-      <c r="BC31" s="45"/>
+      <c r="AR31" s="8"/>
     </row>
     <row r="32" spans="1:65">
       <c r="C32" s="24"/>
@@ -7702,22 +7595,15 @@
       <c r="AE32" s="31"/>
       <c r="AF32" s="31"/>
       <c r="AG32" s="31"/>
-      <c r="AI32" s="76"/>
-      <c r="AJ32" s="76"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="68"/>
       <c r="AL32" s="33"/>
       <c r="AM32" s="33"/>
       <c r="AN32" s="33"/>
       <c r="AO32" s="33"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="48"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-    </row>
-    <row r="33" spans="3:55">
+      <c r="AR32" s="8"/>
+    </row>
+    <row r="33" spans="3:44">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -7730,22 +7616,15 @@
       <c r="AE33" s="31"/>
       <c r="AF33" s="31"/>
       <c r="AG33" s="31"/>
-      <c r="AI33" s="76"/>
-      <c r="AJ33" s="76"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="68"/>
       <c r="AL33" s="33"/>
       <c r="AM33" s="33"/>
       <c r="AN33" s="33"/>
       <c r="AO33" s="33"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="48"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
-      <c r="BA33" s="45"/>
-      <c r="BB33" s="45"/>
-      <c r="BC33" s="45"/>
-    </row>
-    <row r="34" spans="3:55">
+      <c r="AR33" s="8"/>
+    </row>
+    <row r="34" spans="3:44">
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -7758,22 +7637,15 @@
       <c r="AE34" s="31"/>
       <c r="AF34" s="31"/>
       <c r="AG34" s="31"/>
-      <c r="AI34" s="76"/>
-      <c r="AJ34" s="76"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="68"/>
       <c r="AL34" s="33"/>
       <c r="AM34" s="33"/>
       <c r="AN34" s="33"/>
       <c r="AO34" s="33"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="48"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
-      <c r="BB34" s="45"/>
-      <c r="BC34" s="45"/>
-    </row>
-    <row r="35" spans="3:55">
+      <c r="AR34" s="8"/>
+    </row>
+    <row r="35" spans="3:44">
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -7786,22 +7658,15 @@
       <c r="AE35" s="31"/>
       <c r="AF35" s="31"/>
       <c r="AG35" s="31"/>
-      <c r="AI35" s="76"/>
-      <c r="AJ35" s="76"/>
+      <c r="AI35" s="68"/>
+      <c r="AJ35" s="68"/>
       <c r="AL35" s="33"/>
       <c r="AM35" s="33"/>
       <c r="AN35" s="33"/>
       <c r="AO35" s="33"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="48"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="45"/>
-      <c r="BA35" s="45"/>
-      <c r="BB35" s="45"/>
-      <c r="BC35" s="45"/>
-    </row>
-    <row r="36" spans="3:55">
+      <c r="AR35" s="8"/>
+    </row>
+    <row r="36" spans="3:44">
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -7826,22 +7691,15 @@
       <c r="AE36" s="31"/>
       <c r="AF36" s="31"/>
       <c r="AG36" s="31"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="76"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="68"/>
       <c r="AL36" s="33"/>
       <c r="AM36" s="33"/>
       <c r="AN36" s="33"/>
       <c r="AO36" s="33"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="48"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
-      <c r="BB36" s="45"/>
-      <c r="BC36" s="45"/>
-    </row>
-    <row r="37" spans="3:55">
+      <c r="AR36" s="8"/>
+    </row>
+    <row r="37" spans="3:44">
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7866,22 +7724,15 @@
       <c r="AE37" s="31"/>
       <c r="AF37" s="31"/>
       <c r="AG37" s="31"/>
-      <c r="AI37" s="76"/>
-      <c r="AJ37" s="76"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="68"/>
       <c r="AL37" s="33"/>
       <c r="AM37" s="33"/>
       <c r="AN37" s="33"/>
       <c r="AO37" s="33"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="48"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-    </row>
-    <row r="38" spans="3:55">
+      <c r="AR37" s="8"/>
+    </row>
+    <row r="38" spans="3:44">
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -7906,22 +7757,15 @@
       <c r="AE38" s="31"/>
       <c r="AF38" s="31"/>
       <c r="AG38" s="31"/>
-      <c r="AI38" s="76"/>
-      <c r="AJ38" s="76"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="68"/>
       <c r="AL38" s="33"/>
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="33"/>
-      <c r="AR38" s="49"/>
-      <c r="AS38" s="48"/>
-      <c r="AX38" s="45"/>
-      <c r="AY38" s="45"/>
-      <c r="AZ38" s="45"/>
-      <c r="BA38" s="45"/>
-      <c r="BB38" s="45"/>
-      <c r="BC38" s="45"/>
-    </row>
-    <row r="39" spans="3:55">
+      <c r="AR38" s="8"/>
+    </row>
+    <row r="39" spans="3:44">
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -7946,89 +7790,74 @@
       <c r="AE39" s="31"/>
       <c r="AF39" s="31"/>
       <c r="AG39" s="31"/>
-      <c r="AI39" s="76"/>
-      <c r="AJ39" s="76"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
       <c r="AL39" s="33"/>
       <c r="AM39" s="33"/>
       <c r="AN39" s="33"/>
       <c r="AO39" s="33"/>
-      <c r="AR39" s="49"/>
-      <c r="AS39" s="48"/>
-      <c r="AX39" s="45"/>
-      <c r="AY39" s="45"/>
-      <c r="AZ39" s="45"/>
-      <c r="BA39" s="45"/>
-      <c r="BB39" s="45"/>
-      <c r="BC39" s="45"/>
-    </row>
-    <row r="40" spans="3:55">
+      <c r="AR39" s="8"/>
+    </row>
+    <row r="40" spans="3:44">
       <c r="AA40" s="28"/>
-      <c r="AI40" s="76"/>
-      <c r="AJ40" s="76"/>
-      <c r="AR40" s="45"/>
-      <c r="AS40" s="45"/>
-      <c r="AX40" s="45"/>
-      <c r="AY40" s="45"/>
-      <c r="AZ40" s="45"/>
-      <c r="BA40" s="45"/>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-    </row>
-    <row r="41" spans="3:55">
-      <c r="AI41" s="76"/>
-      <c r="AJ41" s="76"/>
-    </row>
-    <row r="42" spans="3:55">
-      <c r="AI42" s="76"/>
-      <c r="AJ42" s="76"/>
-    </row>
-    <row r="43" spans="3:55">
-      <c r="AI43" s="76"/>
-      <c r="AJ43" s="76"/>
-    </row>
-    <row r="44" spans="3:55">
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-    </row>
-    <row r="45" spans="3:55">
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="76"/>
-    </row>
-    <row r="46" spans="3:55">
-      <c r="AI46" s="76"/>
-      <c r="AJ46" s="76"/>
-    </row>
-    <row r="47" spans="3:55">
-      <c r="AI47" s="76"/>
-      <c r="AJ47" s="76"/>
-    </row>
-    <row r="48" spans="3:55">
-      <c r="AI48" s="76"/>
-      <c r="AJ48" s="76"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="68"/>
+    </row>
+    <row r="41" spans="3:44">
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="68"/>
+    </row>
+    <row r="42" spans="3:44">
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="68"/>
+    </row>
+    <row r="43" spans="3:44">
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+    </row>
+    <row r="44" spans="3:44">
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+    </row>
+    <row r="45" spans="3:44">
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="68"/>
+    </row>
+    <row r="46" spans="3:44">
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="68"/>
+    </row>
+    <row r="47" spans="3:44">
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="68"/>
+    </row>
+    <row r="48" spans="3:44">
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="68"/>
     </row>
     <row r="49" spans="35:36">
-      <c r="AI49" s="76"/>
-      <c r="AJ49" s="76"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="68"/>
     </row>
     <row r="50" spans="35:36">
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="76"/>
+      <c r="AI50" s="68"/>
+      <c r="AJ50" s="68"/>
     </row>
     <row r="51" spans="35:36">
-      <c r="AI51" s="76"/>
-      <c r="AJ51" s="76"/>
+      <c r="AI51" s="68"/>
+      <c r="AJ51" s="68"/>
     </row>
     <row r="52" spans="35:36">
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
+      <c r="AI52" s="68"/>
+      <c r="AJ52" s="68"/>
     </row>
     <row r="53" spans="35:36">
-      <c r="AI53" s="76"/>
-      <c r="AJ53" s="76"/>
+      <c r="AI53" s="68"/>
+      <c r="AJ53" s="68"/>
     </row>
     <row r="54" spans="35:36">
-      <c r="AI54" s="76"/>
-      <c r="AJ54" s="76"/>
+      <c r="AI54" s="68"/>
+      <c r="AJ54" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8040,8 +7869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131672C0-DA0C-0746-8A59-3EFE5C746DAE}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8067,106 +7896,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="114" t="s">
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="70" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
       <c r="W1" s="37"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="62"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="55"/>
     </row>
     <row r="2" spans="1:27" ht="17">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="116" t="s">
+      <c r="J2" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="116" t="s">
+      <c r="L2" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="116" t="s">
+      <c r="N2" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="56" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X2" s="56" t="s">
         <v>113</v>
       </c>
       <c r="Y2" t="s">
@@ -8177,1036 +8006,1085 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" thickBot="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="69">
-        <v>15.7</v>
-      </c>
-      <c r="C3" s="69">
-        <v>-3.3</v>
-      </c>
-      <c r="D3" s="69">
+      <c r="B3" s="62">
+        <v>15.6</v>
+      </c>
+      <c r="C3" s="62">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D3" s="62">
         <f>AVERAGE(B3:C3)</f>
-        <v>6.1999999999999993</v>
-      </c>
-      <c r="E3" s="69">
-        <v>44.3</v>
-      </c>
-      <c r="F3" s="69">
+        <v>6.65</v>
+      </c>
+      <c r="E3" s="62">
+        <v>44.4</v>
+      </c>
+      <c r="F3" s="62">
         <f>B3-C3</f>
-        <v>19</v>
-      </c>
-      <c r="G3" s="65">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G3" s="58">
         <f>(B3/1000+1)*0.0036765</f>
-        <v>3.73422105E-3</v>
-      </c>
-      <c r="H3" s="65">
+        <v>3.7338534000000002E-3</v>
+      </c>
+      <c r="H3" s="58">
         <f>(C3/1000+1)*0.0036765</f>
-        <v>3.6643675500000004E-3</v>
-      </c>
-      <c r="I3" s="65">
+        <v>3.6680440500000003E-3</v>
+      </c>
+      <c r="I3" s="58">
         <f>(E3/1000+1)*0.0020052</f>
-        <v>2.0940303600000001E-3</v>
-      </c>
-      <c r="J3" s="65">
+        <v>2.0942308799999998E-3</v>
+      </c>
+      <c r="J3" s="58">
         <f>(I3/0.0020052)^0.516*0.0003799</f>
-        <v>3.8849294549053509E-4</v>
-      </c>
-      <c r="K3" s="66">
+        <v>3.8851214090513769E-4</v>
+      </c>
+      <c r="K3" s="59">
         <f>G3+H3+J3</f>
-        <v>7.7870815454905359E-3</v>
-      </c>
-      <c r="L3" s="66">
+        <v>7.7904095909051381E-3</v>
+      </c>
+      <c r="L3" s="59">
         <f>(G3+H3)*J3+I3+G3*H3</f>
-        <v>2.1105882179178336E-3</v>
-      </c>
-      <c r="M3" s="67">
+        <v>2.110802545772502E-3</v>
+      </c>
+      <c r="M3" s="60">
         <f>K3/size_correction!X$3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="N3" s="67">
+        <v>1.0063795998080221</v>
+      </c>
+      <c r="N3" s="60">
         <f>L3/size_correction!Y$3</f>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="P3" s="63" t="str">
+        <v>1.0045245066467894</v>
+      </c>
+      <c r="P3" s="56" t="str">
         <f>size_correction!D3</f>
         <v>ATM_EQ_SW</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="61">
         <f t="shared" ref="Q3:R5" si="0">M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="R3" s="68">
+        <v>1.0063795998080221</v>
+      </c>
+      <c r="R3" s="61">
         <f t="shared" si="0"/>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="S3" s="110">
+        <v>1.0045245066467894</v>
+      </c>
+      <c r="S3" s="102">
         <f>size_correction!AF3</f>
         <v>1.0056851052976181</v>
       </c>
-      <c r="T3" s="110">
+      <c r="T3" s="102">
         <f>size_correction!AG3</f>
         <v>1.0075218399408568</v>
       </c>
-      <c r="U3" s="67">
+      <c r="U3" s="60">
         <f t="shared" ref="U3:U17" si="1">LN(S3)</f>
         <v>5.6690060748599133E-3</v>
       </c>
-      <c r="V3" s="67">
+      <c r="V3" s="60">
         <f t="shared" ref="V3:V17" si="2">LN(T3)</f>
         <v>7.4936919644022753E-3</v>
       </c>
-      <c r="W3" s="67">
+      <c r="W3" s="60">
         <f t="shared" ref="W3:X9" si="3">LN(Q3)</f>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="X3" s="67">
+        <v>6.359336297563082E-3</v>
+      </c>
+      <c r="X3" s="60">
         <f t="shared" si="3"/>
-        <v>4.412758119012896E-3</v>
-      </c>
-      <c r="Y3" s="72">
+        <v>4.5143018361687463E-3</v>
+      </c>
+      <c r="Y3" s="64">
         <f>SLOPE(W3:W54,U3:U54)</f>
-        <v>1.058002378564959</v>
-      </c>
-      <c r="Z3" s="72">
+        <v>0.91041071995587675</v>
+      </c>
+      <c r="Z3" s="64">
         <f>SLOPE(X3:X54,V3:V54)</f>
-        <v>0.9378376950888252</v>
+        <v>0.87174417962681128</v>
       </c>
       <c r="AA3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="62">
         <v>5.55</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="62">
         <v>-12.87</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="62">
         <f>AVERAGE(B4:C4)</f>
         <v>-3.6599999999999997</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="62">
         <v>32.729999999999997</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="62">
         <f t="shared" ref="F4:F9" si="4">B4-C4</f>
         <v>18.419999999999998</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="58">
         <f>(B4/1000+1)*0.0036765</f>
         <v>3.6969045749999999E-3</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="58">
         <f>(C4/1000+1)*0.0036765</f>
         <v>3.6291834449999998E-3</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="58">
         <f>(E4/1000+1)*0.0020052</f>
         <v>2.0708301959999997E-3</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="58">
         <f>(I4/0.0020052)^0.516*0.0003799</f>
         <v>3.8626599693337293E-4</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="59">
         <f>G4+H4+J4</f>
         <v>7.7123540169333725E-3</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="59">
         <f>(G4+H4)*J4+I4+G4*H4</f>
         <v>2.0870767595740011E-3</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="60">
         <f>K4/size_correction!X$3</f>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="N4" s="67">
+        <v>0.99629623559207658</v>
+      </c>
+      <c r="N4" s="60">
         <f>L4/size_correction!Y$3</f>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="P4" s="63" t="str">
+        <v>0.99323347721175814</v>
+      </c>
+      <c r="P4" s="56" t="str">
         <f>size_correction!D4</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="61">
         <f t="shared" si="0"/>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="R4" s="68">
+        <v>0.99629623559207658</v>
+      </c>
+      <c r="R4" s="61">
         <f t="shared" si="0"/>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="S4" s="110">
+        <v>0.99323347721175814</v>
+      </c>
+      <c r="S4" s="102">
         <f>size_correction!AF4</f>
         <v>0.99668972770557829</v>
       </c>
-      <c r="T4" s="110">
+      <c r="T4" s="102">
         <f>size_correction!AG4</f>
         <v>0.99497700286985102</v>
       </c>
-      <c r="U4" s="67">
+      <c r="U4" s="60">
         <f t="shared" si="1"/>
         <v>-3.3157633670658081E-3</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="60">
         <f t="shared" si="2"/>
         <v>-5.0356547842637621E-3</v>
       </c>
-      <c r="W4" s="67">
+      <c r="W4" s="60">
         <f t="shared" si="3"/>
-        <v>-3.7106403264231301E-3</v>
-      </c>
-      <c r="X4" s="67">
+        <v>-3.7106403264234645E-3</v>
+      </c>
+      <c r="X4" s="60">
         <f t="shared" si="3"/>
-        <v>-6.7895195007928941E-3</v>
-      </c>
-      <c r="Y4" s="72">
+        <v>-6.7895195007912175E-3</v>
+      </c>
+      <c r="Y4" s="64">
         <f>INTERCEPT(W3:W54,U3:U54)</f>
-        <v>-1.8840219242949102E-5</v>
-      </c>
-      <c r="Z4" s="72">
+        <v>6.9469397524750496E-4</v>
+      </c>
+      <c r="Z4" s="64">
         <f>INTERCEPT(X3:X54,V3:V54)</f>
-        <v>-1.5500612170959347E-3</v>
+        <v>-2.0580238405652936E-3</v>
       </c>
       <c r="AA4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="62">
         <v>-0.40396535511111115</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="62">
         <v>-0.14814902897277774</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="62">
         <f>AVERAGE(B5:C5)</f>
         <v>-0.27605719204194445</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="62">
         <v>41.949257311111111</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="62">
         <f t="shared" si="4"/>
         <v>-0.25581632613833338</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="58">
         <f t="shared" ref="G5:H9" si="5">(B5/1000+1)*0.0036765</f>
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="58">
         <f t="shared" si="5"/>
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="58">
         <f t="shared" ref="I5:I9" si="6">(E5/1000+1)*0.0020052</f>
         <v>2.0893166507602399E-3</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="58">
         <f t="shared" ref="J5:J9" si="7">(I5/0.0020052)^0.516*0.0003799</f>
         <v>3.8804145413997107E-4</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="59">
         <f t="shared" ref="K5:K9" si="8">G5+H5+J5</f>
         <v>7.7390116056068863E-3</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="59">
         <f t="shared" ref="L5:L9" si="9">(G5+H5)*J5+I5+G5*H5</f>
         <v>2.1056783222279545E-3</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="60">
         <f>K5/size_correction!X$3</f>
-        <v>0.99973991247556415</v>
-      </c>
-      <c r="N5" s="67">
+        <v>0.99973991247556382</v>
+      </c>
+      <c r="N5" s="60">
         <f>L5/size_correction!Y$3</f>
-        <v>1.0020859042591113</v>
-      </c>
-      <c r="P5" s="63" t="str">
+        <v>1.0020859042591128</v>
+      </c>
+      <c r="P5" s="56" t="str">
         <f>size_correction!D5</f>
         <v>B6_ref_1</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="61">
         <f t="shared" si="0"/>
-        <v>0.99973991247556415</v>
-      </c>
-      <c r="R5" s="68">
+        <v>0.99973991247556382</v>
+      </c>
+      <c r="R5" s="61">
         <f t="shared" si="0"/>
-        <v>1.0020859042591113</v>
-      </c>
-      <c r="S5" s="110">
+        <v>1.0020859042591128</v>
+      </c>
+      <c r="S5" s="102">
         <f>size_correction!AF5</f>
         <v>1.0003832772874761</v>
       </c>
-      <c r="T5" s="110">
+      <c r="T5" s="102">
         <f>size_correction!AG5</f>
         <v>1.0043106480077921</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="60">
         <f t="shared" si="1"/>
         <v>3.8320385549917295E-4</v>
       </c>
-      <c r="V5" s="67">
+      <c r="V5" s="60">
         <f t="shared" si="2"/>
         <v>4.3013837783483656E-3</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="60">
         <f t="shared" si="3"/>
-        <v>-2.6012135306176113E-4</v>
-      </c>
-      <c r="X5" s="67">
+        <v>-2.601213530620943E-4</v>
+      </c>
+      <c r="X5" s="60">
         <f t="shared" si="3"/>
-        <v>2.0837317813513596E-3</v>
+        <v>2.0837317813529109E-3</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="62">
         <v>-22.21</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="62">
         <v>-49.28</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="62">
         <f t="shared" ref="D6:D9" si="10">AVERAGE(B6:C6)</f>
         <v>-35.745000000000005</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="62">
         <v>26.94</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="62">
         <f t="shared" si="4"/>
         <v>27.07</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="58">
         <f t="shared" si="5"/>
         <v>3.5948449350000004E-3</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="58">
         <f t="shared" si="5"/>
         <v>3.49532208E-3</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="58">
         <f t="shared" si="6"/>
         <v>2.0592200879999997E-3</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="58">
         <f t="shared" si="7"/>
         <v>3.8514702697154833E-4</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="59">
         <f t="shared" si="8"/>
         <v>7.4753140419715489E-3</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="59">
         <f t="shared" si="9"/>
         <v>2.0745159856220404E-3</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="60">
         <f>K6/size_correction!X$3</f>
-        <v>0.96567497077192166</v>
-      </c>
-      <c r="N6" s="67">
+        <v>0.96567497077192133</v>
+      </c>
+      <c r="N6" s="60">
         <f>L6/size_correction!Y$3</f>
-        <v>0.98725584312065418</v>
-      </c>
-      <c r="P6" s="63" t="str">
+        <v>0.98725584312065584</v>
+      </c>
+      <c r="P6" s="56" t="str">
         <f>size_correction!D6</f>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="61">
         <f t="shared" ref="Q6:R8" si="11">M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="R6" s="68">
+        <v>1.0063795998080221</v>
+      </c>
+      <c r="R6" s="61">
         <f t="shared" si="11"/>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="S6" s="110">
+        <v>1.0045245066467894</v>
+      </c>
+      <c r="S6" s="102">
         <f>size_correction!AF6</f>
         <v>1.0064059824102283</v>
       </c>
-      <c r="T6" s="110">
+      <c r="T6" s="102">
         <f>size_correction!AG6</f>
         <v>1.0077071570383731</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="60">
         <f t="shared" si="1"/>
         <v>6.3855513126554056E-3</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="60">
         <f t="shared" si="2"/>
         <v>7.6776086292741075E-3</v>
       </c>
-      <c r="W6" s="67">
+      <c r="W6" s="60">
         <f t="shared" si="3"/>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="X6" s="67">
+        <v>6.359336297563082E-3</v>
+      </c>
+      <c r="X6" s="60">
         <f t="shared" si="3"/>
-        <v>4.412758119012896E-3</v>
+        <v>4.5143018361687463E-3</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A7" s="68">
+      <c r="A7" s="61">
         <v>53504</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="62">
         <v>1.71</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="62">
         <v>94.44</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="62">
         <f t="shared" si="10"/>
         <v>48.074999999999996</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="62">
         <v>36.01</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="62">
         <f t="shared" si="4"/>
         <v>-92.73</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="58">
         <f>(B7/1000+1)*0.0036765</f>
         <v>3.6827868150000006E-3</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="58">
         <f t="shared" si="5"/>
         <v>4.0237086600000008E-3</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="58">
         <f t="shared" si="6"/>
         <v>2.0774072520000002E-3</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="58">
         <f t="shared" si="7"/>
         <v>3.8689853960154226E-4</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="59">
         <f t="shared" si="8"/>
         <v>8.0933940146015442E-3</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="59">
         <f t="shared" si="9"/>
         <v>2.0952073450451725E-3</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="60">
         <f>K7/size_correction!X$3</f>
-        <v>1.0455196911613225</v>
-      </c>
-      <c r="N7" s="67">
+        <v>1.0455196911613223</v>
+      </c>
+      <c r="N7" s="60">
         <f>L7/size_correction!Y$3</f>
-        <v>0.99710279808951241</v>
-      </c>
-      <c r="P7" s="63" t="str">
+        <v>0.99710279808951408</v>
+      </c>
+      <c r="P7" s="56" t="str">
         <f>size_correction!D7</f>
         <v>S2_ref_2</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="61">
         <f t="shared" si="11"/>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="R7" s="68">
+        <v>0.99629623559207658</v>
+      </c>
+      <c r="R7" s="61">
         <f t="shared" si="11"/>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="S7" s="110">
+        <v>0.99323347721175814</v>
+      </c>
+      <c r="S7" s="102">
         <f>size_correction!AF7</f>
         <v>0.99663201609671503</v>
       </c>
-      <c r="T7" s="110">
+      <c r="T7" s="102">
         <f>size_correction!AG7</f>
         <v>0.9951628615034982</v>
       </c>
-      <c r="U7" s="67">
+      <c r="U7" s="60">
         <f t="shared" si="1"/>
         <v>-3.3736683280273967E-3</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="60">
         <f t="shared" si="2"/>
         <v>-4.8488753146248009E-3</v>
       </c>
-      <c r="W7" s="67">
+      <c r="W7" s="60">
         <f t="shared" si="3"/>
-        <v>-3.7106403264231301E-3</v>
-      </c>
-      <c r="X7" s="67">
+        <v>-3.7106403264234645E-3</v>
+      </c>
+      <c r="X7" s="60">
         <f t="shared" si="3"/>
-        <v>-6.7895195007928941E-3</v>
+        <v>-6.7895195007912175E-3</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="62">
         <v>17.11</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="62">
         <v>-3.43</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="62">
         <f t="shared" si="10"/>
         <v>6.84</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="62">
         <v>35.29</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="62">
         <f t="shared" si="4"/>
         <v>20.54</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="58">
         <f t="shared" si="5"/>
         <v>3.7394049149999998E-3</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="58">
         <f t="shared" si="5"/>
         <v>3.6638896049999998E-3</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="58">
         <f t="shared" si="6"/>
         <v>2.0759635080000003E-3</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="58">
         <f t="shared" si="7"/>
         <v>3.8675977189798279E-4</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="59">
         <f t="shared" si="8"/>
         <v>7.7900542918979817E-3</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="59">
         <f t="shared" si="9"/>
         <v>2.0925275712968031E-3</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="60">
         <f>K8/size_correction!X$3</f>
-        <v>1.0063337016214813</v>
-      </c>
-      <c r="N8" s="67">
+        <v>1.0063337016214811</v>
+      </c>
+      <c r="N8" s="60">
         <f>L8/size_correction!Y$3</f>
-        <v>0.99582750191939118</v>
-      </c>
-      <c r="P8" s="63" t="str">
+        <v>0.99582750191939284</v>
+      </c>
+      <c r="P8" s="56" t="str">
         <f>size_correction!D8</f>
         <v>B6_ref_2</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="61">
         <f t="shared" si="11"/>
-        <v>0.99973991247556415</v>
-      </c>
-      <c r="R8" s="68">
+        <v>0.99973991247556382</v>
+      </c>
+      <c r="R8" s="61">
         <f t="shared" si="11"/>
-        <v>1.0020859042591113</v>
-      </c>
-      <c r="S8" s="110">
+        <v>1.0020859042591128</v>
+      </c>
+      <c r="S8" s="102">
         <f>size_correction!AF8</f>
         <v>0.99917068284195976</v>
       </c>
-      <c r="T8" s="110">
+      <c r="T8" s="102">
         <f>size_correction!AG8</f>
         <v>1.0023860907979212</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="60">
         <f t="shared" si="1"/>
         <v>-8.2966123175853173E-4</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="60">
         <f t="shared" si="2"/>
         <v>2.3832486035312902E-3</v>
       </c>
-      <c r="W8" s="67">
+      <c r="W8" s="60">
         <f t="shared" si="3"/>
-        <v>-2.6012135306176113E-4</v>
-      </c>
-      <c r="X8" s="67">
+        <v>-2.601213530620943E-4</v>
+      </c>
+      <c r="X8" s="60">
         <f t="shared" si="3"/>
-        <v>2.0837317813513596E-3</v>
+        <v>2.0837317813529109E-3</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="117">
+      <c r="A9" s="108">
         <v>90454</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="109">
         <v>25.73</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="109">
         <v>25.44</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="109">
         <f t="shared" si="10"/>
         <v>25.585000000000001</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="109">
         <v>35.880000000000003</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="109">
         <f t="shared" si="4"/>
         <v>0.28999999999999915</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="110">
         <f t="shared" si="5"/>
         <v>3.7710963450000002E-3</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="110">
         <f t="shared" si="5"/>
         <v>3.7700301599999995E-3</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="110">
         <f t="shared" si="6"/>
         <v>2.0771465759999996E-3</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="110">
         <f t="shared" si="7"/>
         <v>3.8687348777560239E-4</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="111">
         <f t="shared" si="8"/>
         <v>7.9279999927756029E-3</v>
       </c>
-      <c r="L9" s="120">
+      <c r="L9" s="111">
         <f t="shared" si="9"/>
         <v>2.0942811848696616E-3</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="60">
         <f>K9/size_correction!X$3</f>
-        <v>1.0241537838167138</v>
-      </c>
-      <c r="N9" s="67">
+        <v>1.0241537838167134</v>
+      </c>
+      <c r="N9" s="60">
         <f>L9/size_correction!Y$3</f>
-        <v>0.9966620412810443</v>
-      </c>
-      <c r="P9" s="63" t="str">
+        <v>0.99666204128104596</v>
+      </c>
+      <c r="P9" s="56" t="str">
         <f>size_correction!D9</f>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="61">
         <f>M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="R9" s="68">
+        <v>1.0063795998080221</v>
+      </c>
+      <c r="R9" s="61">
         <f>N3</f>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="S9" s="110">
+        <v>1.0045245066467894</v>
+      </c>
+      <c r="S9" s="102">
         <f>size_correction!AF9</f>
         <v>1.0050941512728657</v>
       </c>
-      <c r="T9" s="110">
+      <c r="T9" s="102">
         <f>size_correction!AG9</f>
         <v>1.0057116133646442</v>
       </c>
-      <c r="U9" s="67">
+      <c r="U9" s="60">
         <f t="shared" si="1"/>
         <v>5.0812199816469847E-3</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="60">
         <f t="shared" si="2"/>
         <v>5.6953639452707308E-3</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="60">
         <f t="shared" si="3"/>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="X9" s="67">
+        <v>6.359336297563082E-3</v>
+      </c>
+      <c r="X9" s="60">
         <f t="shared" si="3"/>
-        <v>4.412758119012896E-3</v>
+        <v>4.5143018361687463E-3</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63" t="str">
+      <c r="A10" s="108">
+        <v>94321</v>
+      </c>
+      <c r="B10" s="123">
+        <v>50.52</v>
+      </c>
+      <c r="C10" s="123">
+        <v>2.21</v>
+      </c>
+      <c r="D10" s="109">
+        <f t="shared" ref="D10" si="12">AVERAGE(B10:C10)</f>
+        <v>26.365000000000002</v>
+      </c>
+      <c r="E10" s="123">
+        <v>35.54</v>
+      </c>
+      <c r="F10" s="109">
+        <f t="shared" ref="F10" si="13">B10-C10</f>
+        <v>48.31</v>
+      </c>
+      <c r="G10" s="110">
+        <f t="shared" ref="G10" si="14">(B10/1000+1)*0.0036765</f>
+        <v>3.8622367799999997E-3</v>
+      </c>
+      <c r="H10" s="110">
+        <f t="shared" ref="H10" si="15">(C10/1000+1)*0.0036765</f>
+        <v>3.6846250650000001E-3</v>
+      </c>
+      <c r="I10" s="110">
+        <f t="shared" ref="I10" si="16">(E10/1000+1)*0.0020052</f>
+        <v>2.0764648079999999E-3</v>
+      </c>
+      <c r="J10" s="110">
+        <f t="shared" ref="J10" si="17">(I10/0.0020052)^0.516*0.0003799</f>
+        <v>3.8680796042037466E-4</v>
+      </c>
+      <c r="K10" s="111">
+        <f t="shared" ref="K10" si="18">G10+H10+J10</f>
+        <v>7.9336698054203753E-3</v>
+      </c>
+      <c r="L10" s="111">
+        <f t="shared" ref="L10" si="19">(G10+H10)*J10+I10+G10*H10</f>
+        <v>2.0936148886843914E-3</v>
+      </c>
+      <c r="M10" s="60">
+        <f>K10/size_correction!X$3</f>
+        <v>1.0248862207590654</v>
+      </c>
+      <c r="N10" s="60">
+        <f>L10/size_correction!Y$3</f>
+        <v>0.99634495295455627</v>
+      </c>
+      <c r="P10" s="56" t="str">
         <f>size_correction!D10</f>
         <v>DI</v>
       </c>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="110">
+      <c r="Q10" s="61">
+        <f>M4</f>
+        <v>0.99629623559207658</v>
+      </c>
+      <c r="R10" s="61">
+        <f>N4</f>
+        <v>0.99323347721175814</v>
+      </c>
+      <c r="S10" s="102">
         <f>size_correction!AF10</f>
         <v>0.99092722925764687</v>
       </c>
-      <c r="T10" s="110">
+      <c r="T10" s="102">
         <f>size_correction!AG10</f>
         <v>1.0049378092932522</v>
       </c>
-      <c r="U10" s="67">
-        <f t="shared" si="1"/>
+      <c r="U10" s="60">
+        <f t="shared" ref="U10" si="20">LN(S10)</f>
         <v>-9.1141789753790732E-3</v>
       </c>
-      <c r="V10" s="67">
-        <f t="shared" si="2"/>
+      <c r="V10" s="60">
+        <f t="shared" ref="V10" si="21">LN(T10)</f>
         <v>4.9256582960658154E-3</v>
       </c>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
+      <c r="W10" s="60">
+        <f t="shared" ref="W10" si="22">LN(Q10)</f>
+        <v>-3.7106403264234645E-3</v>
+      </c>
+      <c r="X10" s="60">
+        <f t="shared" ref="X10" si="23">LN(R10)</f>
+        <v>-6.7895195007912175E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="P11" s="63" t="str">
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="P11" s="56" t="str">
         <f>size_correction!D11</f>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="Q11" s="68">
-        <f t="shared" ref="Q11:R13" si="12">M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="R11" s="68">
-        <f t="shared" si="12"/>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="S11" s="110">
+      <c r="Q11" s="61">
+        <f t="shared" ref="Q11:R13" si="24">M3</f>
+        <v>1.0063795998080221</v>
+      </c>
+      <c r="R11" s="61">
+        <f t="shared" si="24"/>
+        <v>1.0045245066467894</v>
+      </c>
+      <c r="S11" s="102">
         <f>size_correction!AF11</f>
         <v>1.0057192814133826</v>
       </c>
-      <c r="T11" s="110">
+      <c r="T11" s="102">
         <f>size_correction!AG11</f>
         <v>1.0054625917600983</v>
       </c>
-      <c r="U11" s="67">
+      <c r="U11" s="60">
         <f t="shared" si="1"/>
         <v>5.7029884167436144E-3</v>
       </c>
-      <c r="V11" s="67">
+      <c r="V11" s="60">
         <f t="shared" si="2"/>
         <v>5.4477259185061388E-3</v>
       </c>
-      <c r="W11" s="67">
-        <f t="shared" ref="W11:X16" si="13">LN(Q11)</f>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="X11" s="67">
-        <f t="shared" si="13"/>
-        <v>4.412758119012896E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="41" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="M12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63" t="str">
+      <c r="W11" s="60">
+        <f t="shared" ref="W11:X16" si="25">LN(Q11)</f>
+        <v>6.359336297563082E-3</v>
+      </c>
+      <c r="X11" s="60">
+        <f t="shared" si="25"/>
+        <v>4.5143018361687463E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="18" thickTop="1" thickBot="1">
+      <c r="M12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56" t="str">
         <f>size_correction!D12</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="Q12" s="68">
-        <f t="shared" si="12"/>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="R12" s="68">
-        <f t="shared" si="12"/>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="S12" s="110">
+      <c r="Q12" s="61">
+        <f t="shared" si="24"/>
+        <v>0.99629623559207658</v>
+      </c>
+      <c r="R12" s="61">
+        <f t="shared" si="24"/>
+        <v>0.99323347721175814</v>
+      </c>
+      <c r="S12" s="102">
         <f>size_correction!AF12</f>
         <v>0.99641187878361481</v>
       </c>
-      <c r="T12" s="110">
+      <c r="T12" s="102">
         <f>size_correction!AG12</f>
         <v>0.99378130442821833</v>
       </c>
-      <c r="U12" s="67">
+      <c r="U12" s="60">
         <f t="shared" si="1"/>
         <v>-3.5945739634335372E-3</v>
       </c>
-      <c r="V12" s="67">
+      <c r="V12" s="60">
         <f t="shared" si="2"/>
         <v>-6.2381121983366193E-3</v>
       </c>
-      <c r="W12" s="67">
-        <f t="shared" si="13"/>
-        <v>-3.7106403264231301E-3</v>
-      </c>
-      <c r="X12" s="67">
-        <f t="shared" si="13"/>
-        <v>-6.7895195007928941E-3</v>
-      </c>
-      <c r="Y12"/>
-      <c r="Z12"/>
+      <c r="W12" s="60">
+        <f t="shared" si="25"/>
+        <v>-3.7106403264234645E-3</v>
+      </c>
+      <c r="X12" s="60">
+        <f t="shared" si="25"/>
+        <v>-6.7895195007912175E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P13" s="63" t="str">
+      <c r="P13" s="56" t="str">
         <f>size_correction!D13</f>
         <v>B6_ref_1</v>
       </c>
-      <c r="Q13" s="68">
-        <f t="shared" si="12"/>
-        <v>0.99973991247556415</v>
-      </c>
-      <c r="R13" s="68">
-        <f t="shared" si="12"/>
-        <v>1.0020859042591113</v>
-      </c>
-      <c r="S13" s="110">
+      <c r="Q13" s="61">
+        <f t="shared" si="24"/>
+        <v>0.99973991247556382</v>
+      </c>
+      <c r="R13" s="61">
+        <f t="shared" si="24"/>
+        <v>1.0020859042591128</v>
+      </c>
+      <c r="S13" s="102">
         <f>size_correction!AF13</f>
         <v>1.0001796848444418</v>
       </c>
-      <c r="T13" s="110">
+      <c r="T13" s="102">
         <f>size_correction!AG13</f>
         <v>1.0040343543858852</v>
       </c>
-      <c r="U13" s="67">
+      <c r="U13" s="60">
         <f t="shared" si="1"/>
         <v>1.7966870305363727E-4</v>
       </c>
-      <c r="V13" s="67">
+      <c r="V13" s="60">
         <f t="shared" si="2"/>
         <v>4.0262381999534996E-3</v>
       </c>
-      <c r="W13" s="67">
-        <f t="shared" si="13"/>
-        <v>-2.6012135306176113E-4</v>
-      </c>
-      <c r="X13" s="67">
-        <f t="shared" si="13"/>
-        <v>2.0837317813513596E-3</v>
+      <c r="W13" s="60">
+        <f t="shared" si="25"/>
+        <v>-2.601213530620943E-4</v>
+      </c>
+      <c r="X13" s="60">
+        <f t="shared" si="25"/>
+        <v>2.0837317813529109E-3</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P14" s="63" t="str">
+      <c r="P14" s="56" t="str">
         <f>size_correction!D14</f>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="61">
         <f>M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="R14" s="68">
+        <v>1.0063795998080221</v>
+      </c>
+      <c r="R14" s="61">
         <f>N3</f>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="S14" s="110">
+        <v>1.0045245066467894</v>
+      </c>
+      <c r="S14" s="102">
         <f>size_correction!AF14</f>
         <v>1.0048805539160894</v>
       </c>
-      <c r="T14" s="110">
+      <c r="T14" s="102">
         <f>size_correction!AG14</f>
         <v>1.0053599727245706</v>
       </c>
-      <c r="U14" s="67">
+      <c r="U14" s="60">
         <f t="shared" si="1"/>
         <v>4.8686826228146419E-3</v>
       </c>
-      <c r="V14" s="67">
+      <c r="V14" s="60">
         <f t="shared" si="2"/>
         <v>5.3456591947391319E-3</v>
       </c>
-      <c r="W14" s="67">
-        <f t="shared" si="13"/>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="X14" s="67">
-        <f t="shared" si="13"/>
-        <v>4.412758119012896E-3</v>
+      <c r="W14" s="60">
+        <f t="shared" si="25"/>
+        <v>6.359336297563082E-3</v>
+      </c>
+      <c r="X14" s="60">
+        <f t="shared" si="25"/>
+        <v>4.5143018361687463E-3</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P15" s="63" t="str">
+      <c r="P15" s="56" t="str">
         <f>size_correction!D15</f>
         <v>ATM_EQ_SW_3</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="61">
         <f>M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="R15" s="68">
+        <v>1.0063795998080221</v>
+      </c>
+      <c r="R15" s="61">
         <f>N3</f>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="S15" s="110">
+        <v>1.0045245066467894</v>
+      </c>
+      <c r="S15" s="102">
         <f>size_correction!AF15</f>
         <v>1.0056387310168626</v>
       </c>
-      <c r="T15" s="110">
+      <c r="T15" s="102">
         <f>size_correction!AG15</f>
         <v>1.0064676550191509</v>
       </c>
-      <c r="U15" s="67">
+      <c r="U15" s="60">
         <f t="shared" si="1"/>
         <v>5.6228928832132777E-3</v>
       </c>
-      <c r="V15" s="67">
+      <c r="V15" s="60">
         <f t="shared" si="2"/>
         <v>6.446829485110093E-3</v>
       </c>
-      <c r="W15" s="67">
-        <f t="shared" si="13"/>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="X15" s="67">
-        <f t="shared" si="13"/>
-        <v>4.412758119012896E-3</v>
+      <c r="W15" s="60">
+        <f t="shared" si="25"/>
+        <v>6.359336297563082E-3</v>
+      </c>
+      <c r="X15" s="60">
+        <f t="shared" si="25"/>
+        <v>4.5143018361687463E-3</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P16" s="63" t="str">
+      <c r="P16" s="56" t="str">
         <f>size_correction!D16</f>
         <v>S2_ref_2</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="61">
         <f>M4</f>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="R16" s="68">
+        <v>0.99629623559207658</v>
+      </c>
+      <c r="R16" s="61">
         <f>N4</f>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="S16" s="110">
+        <v>0.99323347721175814</v>
+      </c>
+      <c r="S16" s="102">
         <f>size_correction!AF16</f>
         <v>0.99633327484903467</v>
       </c>
-      <c r="T16" s="110">
+      <c r="T16" s="102">
         <f>size_correction!AG16</f>
         <v>0.99474403428411884</v>
       </c>
-      <c r="U16" s="67">
+      <c r="U16" s="60">
         <f t="shared" si="1"/>
         <v>-3.6734640658408848E-3</v>
       </c>
-      <c r="V16" s="67">
+      <c r="V16" s="60">
         <f t="shared" si="2"/>
         <v>-5.2698268942697113E-3</v>
       </c>
-      <c r="W16" s="67">
-        <f t="shared" si="13"/>
-        <v>-3.7106403264231301E-3</v>
-      </c>
-      <c r="X16" s="67">
-        <f t="shared" si="13"/>
-        <v>-6.7895195007928941E-3</v>
+      <c r="W16" s="60">
+        <f t="shared" si="25"/>
+        <v>-3.7106403264234645E-3</v>
+      </c>
+      <c r="X16" s="60">
+        <f t="shared" si="25"/>
+        <v>-6.7895195007912175E-3</v>
       </c>
     </row>
     <row r="17" spans="4:24" ht="18" thickTop="1" thickBot="1">
-      <c r="P17" s="63" t="str">
+      <c r="P17" s="56" t="str">
         <f>size_correction!D17</f>
         <v>DI</v>
       </c>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="110">
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="102">
         <f>size_correction!AF17</f>
         <v>0.99349493237592013</v>
       </c>
-      <c r="T17" s="110">
+      <c r="T17" s="102">
         <f>size_correction!AG17</f>
         <v>1.0044001925480899</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U17" s="60">
         <f t="shared" si="1"/>
         <v>-6.5263177824188435E-3</v>
       </c>
-      <c r="V17" s="67">
+      <c r="V17" s="60">
         <f t="shared" si="2"/>
         <v>4.3905400058642007E-3</v>
       </c>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
     </row>
     <row r="18" spans="4:24" ht="17" thickTop="1"/>
     <row r="28" spans="4:24">
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="4:24">
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="4:24">
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="4:24">
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" spans="4:24">
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="63"/>
-      <c r="E44" s="64"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="63"/>
-      <c r="E46" s="64"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9250,8 +9128,8 @@
       </c>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
@@ -9263,34 +9141,34 @@
       <c r="N2">
         <v>2.0052E-3</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="121" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
       <c r="M3" t="s">
         <v>125</v>
       </c>
       <c r="N3">
         <v>0.51600000000000001</v>
       </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9308,7 +9186,7 @@
       <c r="E4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="104" t="s">
         <v>137</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -9326,13 +9204,13 @@
       <c r="K4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="104" t="s">
         <v>141</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -9341,465 +9219,465 @@
       <c r="P4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="Y4" s="112"/>
+      <c r="V4" s="104"/>
+      <c r="Y4" s="104"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="68">
+      <c r="A5" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="61">
         <v>3.7689117349450109E-3</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="61">
         <v>7.7934998191650307E-3</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="103">
         <v>2.1164798861162191E-3</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="61">
         <v>0</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="61">
         <v>3.7228017752489761E-3</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="61">
         <v>7.7441640342372194E-3</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="103">
         <v>2.109788966545483E-3</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="61">
         <v>0</v>
       </c>
-      <c r="M5" s="67" cm="1">
+      <c r="M5" s="60" cm="1">
         <f t="array" ref="M5">Rsolve18(E5,10,D5,E5,F5,$N$3,$N$2,$N$1)</f>
         <v>2.0998927031414612E-3</v>
       </c>
-      <c r="N5" s="67" cm="1">
+      <c r="N5" s="60" cm="1">
         <f t="array" ref="N5">Rsolve18(K5,10,J5,K5,L5,$N$3,$N$2,$N$1)</f>
         <v>2.0934050628434882E-3</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="60">
         <f>$N$1*(M5/$N$2)^$N$3</f>
         <v>3.8905377024749663E-4</v>
       </c>
-      <c r="P5" s="67">
+      <c r="P5" s="60">
         <f>$N$1*(N5/$N$2)^$N$3</f>
         <v>3.8843308121852137E-4</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="76">
         <f>(A5+R5*B5+A5*B5-(C5-O5)*(1+(1-R5)*B5))/(A5*(1+C5-O5))</f>
         <v>0.20872209614007559</v>
       </c>
-      <c r="R5" s="84">
+      <c r="R5" s="76">
         <f>((A5-C5+O5)*(1+B5)/(A5*(1+C5-O5)) - (G5-I5+P5)*(1+H5)/(G5*(1+I5-P5)))/(H5/G5-B5/A5)</f>
         <v>0.1159684103244177</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="68">
+      <c r="A6" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="61">
         <v>3.7689117349450109E-3</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="61">
         <v>7.7934998191650307E-3</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="103">
         <v>2.1164798861162191E-3</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="61">
         <v>0</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="61">
         <v>3.7199285353648262E-3</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="61">
         <v>7.7342329865834319E-3</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="103">
         <v>2.105997079923158E-3</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="61">
         <v>0</v>
       </c>
-      <c r="M6" s="67" cm="1">
+      <c r="M6" s="60" cm="1">
         <f t="array" ref="M6">Rsolve18(E6,10,D6,E6,F6,$N$3,$N$2,$N$1)</f>
         <v>2.0998927031414612E-3</v>
       </c>
-      <c r="N6" s="67" cm="1">
+      <c r="N6" s="60" cm="1">
         <f t="array" ref="N6">Rsolve18(K6,10,J6,K6,L6,$N$3,$N$2,$N$1)</f>
         <v>2.0896547141455901E-3</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="60">
         <f>$N$1*(M6/$N$2)^$N$3</f>
         <v>3.8905377024749663E-4</v>
       </c>
-      <c r="P6" s="67">
+      <c r="P6" s="60">
         <f>$N$1*(N6/$N$2)^$N$3</f>
         <v>3.8807385113215798E-4</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="Q6" s="76">
         <f>(A6+R6*B6+A6*B6-(C6-O6)*(1+(1-R6)*B6))/(A6*(1+C6-O6))</f>
         <v>0.17329677501906443</v>
       </c>
-      <c r="R6" s="84">
+      <c r="R6" s="76">
         <f>((A6-C6+O6)*(1+B6)/(A6*(1+C6-O6)) - (G6-I6+P6)*(1+H6)/(G6*(1+I6-P6)))/(H6/G6-B6/A6)</f>
         <v>7.9867779580351114E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="68">
+      <c r="A7" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="61">
         <v>3.770760540076305E-3</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="61">
         <v>7.7827523186501267E-3</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="61">
         <v>2.1125489546459449E-3</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="61">
         <v>0</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="61">
         <v>3.7228017752489761E-3</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="61">
         <v>7.7441640342372194E-3</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="61">
         <v>2.109788966545483E-3</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="61">
         <v>0</v>
       </c>
-      <c r="M7" s="67" cm="1">
+      <c r="M7" s="60" cm="1">
         <f t="array" ref="M7">Rsolve18(E7,10,D7,E7,F7,$N$3,$N$2,$N$1)</f>
         <v>2.096006943235472E-3</v>
       </c>
-      <c r="N7" s="67" cm="1">
+      <c r="N7" s="60" cm="1">
         <f t="array" ref="N7">Rsolve18(K7,10,J7,K7,L7,$N$3,$N$2,$N$1)</f>
         <v>2.0934050628434882E-3</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="60">
         <f t="shared" ref="O7:O11" si="0">$N$1*(M7/$N$2)^$N$3</f>
         <v>3.8868212138784054E-4</v>
       </c>
-      <c r="P7" s="67">
+      <c r="P7" s="60">
         <f t="shared" ref="P7:P11" si="1">$N$1*(N7/$N$2)^$N$3</f>
         <v>3.8843308121852137E-4</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="Q7" s="76">
         <f t="shared" ref="Q7:Q11" si="2">(A7+R7*B7+A7*B7-(C7-O7)*(1+(1-R7)*B7))/(A7*(1+C7-O7))</f>
         <v>0.17733587859609368</v>
       </c>
-      <c r="R7" s="84">
+      <c r="R7" s="76">
         <f t="shared" ref="R7:R11" si="3">((A7-C7+O7)*(1+B7)/(A7*(1+C7-O7)) - (G7-I7+P7)*(1+H7)/(G7*(1+I7-P7)))/(H7/G7-B7/A7)</f>
         <v>8.4590223076979915E-2</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="68">
+      <c r="A8" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="61">
         <v>3.770760540076305E-3</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="61">
         <v>7.7827523186501267E-3</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="61">
         <v>2.1125489546459449E-3</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="61">
         <v>0</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="61">
         <v>3.7199285353648262E-3</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="61">
         <v>7.7342329865834319E-3</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="61">
         <v>2.105997079923158E-3</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="61">
         <v>0</v>
       </c>
-      <c r="M8" s="67" cm="1">
+      <c r="M8" s="60" cm="1">
         <f t="array" ref="M8">Rsolve18(E8,10,D8,E8,F8,$N$3,$N$2,$N$1)</f>
         <v>2.096006943235472E-3</v>
       </c>
-      <c r="N8" s="67" cm="1">
+      <c r="N8" s="60" cm="1">
         <f t="array" ref="N8">Rsolve18(K8,10,J8,K8,L8,$N$3,$N$2,$N$1)</f>
         <v>2.0896547141455901E-3</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="60">
         <f t="shared" si="0"/>
         <v>3.8868212138784054E-4</v>
       </c>
-      <c r="P8" s="67">
+      <c r="P8" s="60">
         <f t="shared" si="1"/>
         <v>3.8807385113215798E-4</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="76">
         <f t="shared" si="2"/>
         <v>0.14191055747508233</v>
       </c>
-      <c r="R8" s="84">
+      <c r="R8" s="76">
         <f t="shared" si="3"/>
         <v>4.8489592332913341E-2</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="68">
+      <c r="A9" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="61">
         <v>3.774157409185728E-3</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="61">
         <v>7.7878737502717673E-3</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="61">
         <v>2.11205838421125E-3</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="61">
         <v>0</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="61">
         <v>3.7242631653031061E-3</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="61">
         <v>7.742496580265385E-3</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="61">
         <v>2.1092446228371492E-3</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="61">
         <v>0</v>
       </c>
-      <c r="M9" s="67" cm="1">
+      <c r="M9" s="60" cm="1">
         <f t="array" ref="M9">Rsolve18(E9,10,D9,E9,F9,$N$3,$N$2,$N$1)</f>
         <v>2.0954956035312334E-3</v>
       </c>
-      <c r="N9" s="67" cm="1">
+      <c r="N9" s="60" cm="1">
         <f t="array" ref="N9">Rsolve18(K9,10,J9,K9,L9,$N$3,$N$2,$N$1)</f>
         <v>2.0928676680247141E-3</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="60">
         <f t="shared" si="0"/>
         <v>3.886331900931322E-4</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="60">
         <f t="shared" si="1"/>
         <v>3.883816255649651E-4</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="76">
         <f t="shared" si="2"/>
         <v>0.14994727862657609</v>
       </c>
-      <c r="R9" s="84">
+      <c r="R9" s="76">
         <f t="shared" si="3"/>
         <v>5.7620461575761298E-2</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="68">
+      <c r="A10" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="61">
         <v>3.7661587198913019E-3</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="61">
         <v>7.7810024465572326E-3</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="61">
         <v>2.1118562233900968E-3</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="61">
         <v>0</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="61">
         <v>3.7242631653031061E-3</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="61">
         <v>7.742496580265385E-3</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="61">
         <v>2.1092446228371492E-3</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="61">
         <v>0</v>
       </c>
-      <c r="M10" s="67" cm="1">
+      <c r="M10" s="60" cm="1">
         <f t="array" ref="M10">Rsolve18(E10,10,D10,E10,F10,$N$3,$N$2,$N$1)</f>
         <v>2.0953215776226782E-3</v>
       </c>
-      <c r="N10" s="67" cm="1">
+      <c r="N10" s="60" cm="1">
         <f t="array" ref="N10">Rsolve18(K10,10,J10,K10,L10,$N$3,$N$2,$N$1)</f>
         <v>2.0928676680247141E-3</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="60">
         <f t="shared" si="0"/>
         <v>3.8861653582803027E-4</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="60">
         <f t="shared" si="1"/>
         <v>3.883816255649651E-4</v>
       </c>
-      <c r="Q10" s="84">
+      <c r="Q10" s="76">
         <f t="shared" si="2"/>
         <v>0.26277357755180591</v>
       </c>
-      <c r="R10" s="84">
+      <c r="R10" s="76">
         <f t="shared" si="3"/>
         <v>0.17041789341507743</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="68">
+      <c r="A11" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="61">
         <v>3.7730126315774341E-3</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="61">
         <v>7.7872138239604956E-3</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="61">
         <v>2.114038303996214E-3</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="61">
         <v>0</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="61">
         <v>3.7242631653031061E-3</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="61">
         <v>7.742496580265385E-3</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="61">
         <v>2.1092446228371492E-3</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="61">
         <v>0</v>
       </c>
-      <c r="M11" s="67" cm="1">
+      <c r="M11" s="60" cm="1">
         <f t="array" ref="M11">Rsolve18(E11,10,D11,E11,F11,$N$3,$N$2,$N$1)</f>
         <v>2.0974775933835267E-3</v>
       </c>
-      <c r="N11" s="67" cm="1">
+      <c r="N11" s="60" cm="1">
         <f t="array" ref="N11">Rsolve18(K11,10,J11,K11,L11,$N$3,$N$2,$N$1)</f>
         <v>2.0928676680247141E-3</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="60">
         <f t="shared" si="0"/>
         <v>3.888228191523488E-4</v>
       </c>
-      <c r="P11" s="67">
+      <c r="P11" s="60">
         <f t="shared" si="1"/>
         <v>3.883816255649651E-4</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="76">
         <f t="shared" si="2"/>
         <v>0.16880903099141051</v>
       </c>
-      <c r="R11" s="84">
+      <c r="R11" s="76">
         <f t="shared" si="3"/>
         <v>7.6477388081454753E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="Q13" s="84">
+      <c r="Q13" s="76">
         <f>AVERAGE(Q5:Q11)</f>
         <v>0.18325645634287266</v>
       </c>
-      <c r="R13" s="84">
+      <c r="R13" s="76">
         <f>AVERAGE(R5:R11)</f>
         <v>9.0490249769565087E-2</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="Q14" s="84">
+      <c r="Q14" s="76">
         <f>STDEV(Q5:Q11)</f>
         <v>4.1096294725866948E-2</v>
       </c>
-      <c r="R14" s="84">
+      <c r="R14" s="76">
         <f>STDEV(R5:R11)</f>
         <v>4.1283674266355812E-2</v>
       </c>
@@ -9835,176 +9713,176 @@
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="72">
         <f>B12</f>
         <v>0.4623614635092998</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="72">
         <f>C12</f>
         <v>0.10975712247295455</v>
       </c>
       <c r="F2" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="43">
         <f>1/B2</f>
         <v>2.1628100067208269</v>
       </c>
       <c r="H2" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="72">
         <f>B13</f>
         <v>8.0186890671505306E-3</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80">
+      <c r="C3" s="70"/>
+      <c r="D3" s="72">
         <f>C13</f>
         <v>0.30903560626553517</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="72">
         <v>1.026</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="E4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="E4" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F4">
         <v>0.99819999999999998</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="70" t="s">
         <v>148</v>
       </c>
       <c r="I4">
         <v>1.002</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="76">
         <f>1/B4</f>
         <v>0.97465886939571145</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="70"/>
+      <c r="E5" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="76">
         <f>1/F4</f>
         <v>1.0018032458425166</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="76">
         <f>1/I4</f>
         <v>0.99800399201596801</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="81"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="73"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="79">
         <f>B5/1000</f>
         <v>9.7465886939571145E-4</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="E6" s="78" t="s">
+      <c r="C6" s="70"/>
+      <c r="E6" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="79">
         <f>F5/1000</f>
         <v>1.0018032458425166E-3</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="79">
         <f>I5/1000</f>
         <v>9.9800399201596798E-4</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="86"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="78"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="L7" s="81"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="81"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="73"/>
     </row>
     <row r="8" spans="1:18" ht="18">
-      <c r="L8" s="81"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="81"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="M9" s="91"/>
-      <c r="N9" s="81"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="73"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="96"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="81"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="73"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
@@ -10013,7 +9891,7 @@
       <c r="C11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="78"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -10044,27 +9922,27 @@
       <c r="B14">
         <v>0.99342642117731605</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="43">
         <v>0.96347094633189312</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15">
         <v>3324.7309959200538</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="43">
         <v>22</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16">
@@ -10073,23 +9951,23 @@
       <c r="C16">
         <v>20.422077817364819</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="G18" s="50"/>
-      <c r="I18" s="100"/>
+      <c r="G18" s="43"/>
+      <c r="I18" s="92"/>
     </row>
     <row r="20" spans="4:10">
-      <c r="J20" s="101"/>
+      <c r="J20" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pyisotopomer_examples/00_Python_template_v3.xlsx
+++ b/pyisotopomer_examples/00_Python_template_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/N2O Research/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PhD Research/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41518C93-58AF-D648-99DC-20C256437315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799CCE28-49A8-5B4E-8B69-5F48647616DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="500" windowWidth="15840" windowHeight="15880" activeTab="1" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -800,6 +800,7 @@
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1169,7 +1170,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1387,6 +1388,7 @@
     <xf numFmtId="2" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1399,7 +1401,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1586,49 +1593,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.6690060748599133E-3</c:v>
+                  <c:v>5.6690055237280769E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.3157633670658081E-3</c:v>
+                  <c:v>-3.3157638681124957E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8320385549917295E-4</c:v>
+                  <c:v>3.8320389860548991E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3855513126554056E-3</c:v>
+                  <c:v>6.3855507699817496E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.3736683280273967E-3</c:v>
+                  <c:v>-3.3736677173379051E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.2966123175853173E-4</c:v>
+                  <c:v>-8.2966119409939951E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0812199816469847E-3</c:v>
+                  <c:v>5.0812194379027328E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.1141789753790732E-3</c:v>
+                  <c:v>-9.1141790851831522E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7029884167436144E-3</c:v>
+                  <c:v>5.7029878614330018E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.5945739634335372E-3</c:v>
+                  <c:v>-3.5945744132340751E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7966870305363727E-4</c:v>
+                  <c:v>1.7966872284646754E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8686826228146419E-3</c:v>
+                  <c:v>4.8686820742108883E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6228928832132777E-3</c:v>
+                  <c:v>5.622892326012742E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.6734640658408848E-3</c:v>
+                  <c:v>-3.6734644937986794E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.5263177824188435E-3</c:v>
+                  <c:v>-6.5263180168436035E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,49 +2125,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.4936919644022753E-3</c:v>
+                  <c:v>7.4936924442244243E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0356547842637621E-3</c:v>
+                  <c:v>-5.0356543464973921E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3013837783483656E-3</c:v>
+                  <c:v>4.3013837408978879E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6776086292741075E-3</c:v>
+                  <c:v>7.6776091019842571E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.8488753146248009E-3</c:v>
+                  <c:v>-4.8488758480560003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3832486035312902E-3</c:v>
+                  <c:v>2.3832485707903322E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6953639452707308E-3</c:v>
+                  <c:v>5.695364419234337E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9256582960658154E-3</c:v>
+                  <c:v>4.9256583905018169E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4477259185061388E-3</c:v>
+                  <c:v>5.4477264029729328E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.2381121983366193E-3</c:v>
+                  <c:v>-6.2381118049810447E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0262381999534996E-3</c:v>
+                  <c:v>4.0262381827564685E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3456591947391319E-3</c:v>
+                  <c:v>5.3456596730043536E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.446829485110093E-3</c:v>
+                  <c:v>6.4468299707013997E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2698268942697113E-3</c:v>
+                  <c:v>-5.2698265204076363E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3905400058642007E-3</c:v>
+                  <c:v>4.3905402081100102E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:Y3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4341,36 +4348,36 @@
       </c>
       <c r="AE3" s="31">
         <f>$W$7*(20-I3)+AC3</f>
-        <v>1.0094442361786187</v>
+        <v>1.0094442359432119</v>
       </c>
       <c r="AF3" s="31">
         <f>$X$7*(20-I3)+AA3</f>
-        <v>1.0056851052976181</v>
+        <v>1.005685104743353</v>
       </c>
       <c r="AG3" s="31">
         <f>$Y$7*(20-I3)+AB3</f>
-        <v>1.0075218399408568</v>
+        <v>1.0075218404242881</v>
       </c>
       <c r="AI3" s="68">
         <f>AF3^$X$11*EXP(X$12)</f>
-        <v>1.0058729966944395</v>
+        <v>1.0058729965987645</v>
       </c>
       <c r="AJ3" s="68">
         <f>AG3^$Y$11*EXP(Y$12)</f>
-        <v>1.0044845842983396</v>
+        <v>1.004484584452265</v>
       </c>
       <c r="AK3" s="32"/>
       <c r="AL3" s="33">
         <f>AE3*$W$3</f>
-        <v>3.7690253636311274E-3</v>
+        <v>3.7690253627521743E-3</v>
       </c>
       <c r="AM3" s="33">
         <f>AI3*$X$3</f>
-        <v>7.7864879635633402E-3</v>
+        <v>7.7864879628227173E-3</v>
       </c>
       <c r="AN3" s="33">
         <f>AJ3*$Y$3</f>
-        <v>2.1107186571324705E-3</v>
+        <v>2.1107186574559132E-3</v>
       </c>
       <c r="AO3" s="112">
         <v>0</v>
@@ -4526,36 +4533,36 @@
       </c>
       <c r="AE4" s="31">
         <f t="shared" ref="AE4:AE17" si="2">$W$7*(20-I4)+AC4</f>
-        <v>1.0011999046840065</v>
+        <v>1.0011999044719069</v>
       </c>
       <c r="AF4" s="31">
         <f t="shared" ref="AF4:AF17" si="3">$X$7*(20-I4)+AA4</f>
-        <v>0.99668972770557829</v>
+        <v>0.9966897272061902</v>
       </c>
       <c r="AG4" s="31">
         <f t="shared" ref="AG4:AG17" si="4">$Y$7*(20-I4)+AB4</f>
-        <v>0.99497700286985102</v>
+        <v>0.99497700330541849</v>
       </c>
       <c r="AI4" s="68">
         <f t="shared" ref="AI4:AI17" si="5">AF4^$X$11*EXP(X$12)</f>
-        <v>0.99767868588737729</v>
+        <v>0.99767868558186468</v>
       </c>
       <c r="AJ4" s="68">
         <f t="shared" ref="AJ4:AJ17" si="6">AG4^$Y$11*EXP(Y$12)</f>
-        <v>0.99357291603893838</v>
+        <v>0.99357291625992428</v>
       </c>
       <c r="AK4" s="32"/>
       <c r="AL4" s="33">
         <f t="shared" ref="AL4:AL17" si="7">AE4*$W$3</f>
-        <v>3.7382429851740397E-3</v>
+        <v>3.7382429843821098E-3</v>
       </c>
       <c r="AM4" s="33">
         <f t="shared" ref="AM4:AM17" si="8">AI4*$X$3</f>
-        <v>7.7230555991609088E-3</v>
+        <v>7.7230555967959282E-3</v>
       </c>
       <c r="AN4" s="33">
         <f t="shared" ref="AN4:AN17" si="9">AJ4*$Y$3</f>
-        <v>2.0877900207595724E-3</v>
+        <v>2.0877900212239288E-3</v>
       </c>
       <c r="AO4" s="112">
         <v>0</v>
@@ -4716,36 +4723,36 @@
       </c>
       <c r="AE5" s="31">
         <f t="shared" si="2"/>
-        <v>0.99706434207705574</v>
+        <v>0.99706434209537076</v>
       </c>
       <c r="AF5" s="31">
         <f t="shared" si="3"/>
-        <v>1.0003832772874761</v>
+        <v>1.000383277330599</v>
       </c>
       <c r="AG5" s="31">
         <f t="shared" si="4"/>
-        <v>1.0043106480077921</v>
+        <v>1.0043106479701802</v>
       </c>
       <c r="AI5" s="68">
         <f t="shared" si="5"/>
-        <v>1.001044111578594</v>
+        <v>1.0010441118737647</v>
       </c>
       <c r="AJ5" s="68">
         <f t="shared" si="6"/>
-        <v>1.001693114134492</v>
+        <v>1.0016931138633087</v>
       </c>
       <c r="AK5" s="32"/>
       <c r="AL5" s="33">
         <f t="shared" si="7"/>
-        <v>3.7228017752489739E-3</v>
+        <v>3.7228017753173576E-3</v>
       </c>
       <c r="AM5" s="33">
         <f t="shared" si="8"/>
-        <v>7.7491074434027181E-3</v>
+        <v>7.749107445687642E-3</v>
       </c>
       <c r="AN5" s="33">
         <f t="shared" si="9"/>
-        <v>2.1048529542160065E-3</v>
+        <v>2.1048529536461702E-3</v>
       </c>
       <c r="AO5" s="112">
         <v>0</v>
@@ -4890,7 +4897,7 @@
       <c r="W6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="124" t="s">
         <v>20</v>
       </c>
       <c r="Y6" s="17" t="s">
@@ -4910,36 +4917,36 @@
       </c>
       <c r="AE6" s="31">
         <f t="shared" si="2"/>
-        <v>1.0094138034244713</v>
+        <v>1.0094138031925111</v>
       </c>
       <c r="AF6" s="31">
         <f t="shared" si="3"/>
-        <v>1.0064059824102283</v>
+        <v>1.0064059818640783</v>
       </c>
       <c r="AG6" s="31">
         <f t="shared" si="4"/>
-        <v>1.0077071570383731</v>
+        <v>1.0077071575147265</v>
       </c>
       <c r="AI6" s="68">
         <f t="shared" si="5"/>
-        <v>1.0065293924891645</v>
+        <v>1.0065293924217837</v>
       </c>
       <c r="AJ6" s="68">
         <f t="shared" si="6"/>
-        <v>1.0046456444970819</v>
+        <v>1.0046456446432428</v>
       </c>
       <c r="AK6" s="32"/>
       <c r="AL6" s="33">
         <f t="shared" si="7"/>
-        <v>3.7689117349450092E-3</v>
+        <v>3.7689117340789246E-3</v>
       </c>
       <c r="AM6" s="33">
         <f t="shared" si="8"/>
-        <v>7.7915691397871332E-3</v>
+        <v>7.7915691392655374E-3</v>
       </c>
       <c r="AN6" s="33">
         <f t="shared" si="9"/>
-        <v>2.1110570921584735E-3</v>
+        <v>2.1110570924656007E-3</v>
       </c>
       <c r="AO6" s="112">
         <v>0</v>
@@ -5081,14 +5088,14 @@
       <c r="U7" s="24">
         <v>0.42891970000000001</v>
       </c>
-      <c r="W7" s="34">
-        <v>5.65785154557688E-5</v>
-      </c>
-      <c r="X7" s="35">
-        <v>2.8107236390596598E-5</v>
-      </c>
-      <c r="Y7" s="36">
-        <v>4.8711468260038703E-5</v>
+      <c r="W7" s="125">
+        <v>5.65785E-5</v>
+      </c>
+      <c r="X7" s="126">
+        <v>2.8107200000000001E-5</v>
+      </c>
+      <c r="Y7" s="127">
+        <v>4.8711500000000003E-5</v>
       </c>
       <c r="AA7" s="28">
         <f t="shared" si="1"/>
@@ -5104,36 +5111,36 @@
       </c>
       <c r="AE7" s="31">
         <f t="shared" si="2"/>
-        <v>1.0010419752766739</v>
+        <v>1.0010419755351716</v>
       </c>
       <c r="AF7" s="31">
         <f t="shared" si="3"/>
-        <v>0.99663201609671503</v>
+        <v>0.99663201670534773</v>
       </c>
       <c r="AG7" s="31">
         <f t="shared" si="4"/>
-        <v>0.9951628615034982</v>
+        <v>0.99516286097264728</v>
       </c>
       <c r="AI7" s="68">
         <f t="shared" si="5"/>
-        <v>0.99762609234989208</v>
+        <v>0.99762609305247885</v>
       </c>
       <c r="AJ7" s="68">
         <f t="shared" si="6"/>
-        <v>0.99373470664282637</v>
+        <v>0.99373470602094893</v>
       </c>
       <c r="AK7" s="32"/>
       <c r="AL7" s="33">
         <f t="shared" si="7"/>
-        <v>3.737653314223861E-3</v>
+        <v>3.7376533151890303E-3</v>
       </c>
       <c r="AM7" s="33">
         <f t="shared" si="8"/>
-        <v>7.7226484712750471E-3</v>
+        <v>7.7226484767137886E-3</v>
       </c>
       <c r="AN7" s="33">
         <f t="shared" si="9"/>
-        <v>2.0881299905824179E-3</v>
+        <v>2.0881299892756698E-3</v>
       </c>
       <c r="AO7" s="112">
         <v>0</v>
@@ -5289,36 +5296,36 @@
       </c>
       <c r="AE8" s="31">
         <f t="shared" si="2"/>
-        <v>0.99629481277958798</v>
+        <v>0.9962948127955692</v>
       </c>
       <c r="AF8" s="31">
         <f t="shared" si="3"/>
-        <v>0.99917068284195976</v>
+        <v>0.99917068287958766</v>
       </c>
       <c r="AG8" s="31">
         <f t="shared" si="4"/>
-        <v>1.0023860907979212</v>
+        <v>1.0023860907651021</v>
       </c>
       <c r="AI8" s="68">
         <f t="shared" si="5"/>
-        <v>0.99993936333439959</v>
+        <v>0.99993936358963498</v>
       </c>
       <c r="AJ8" s="68">
         <f t="shared" si="6"/>
-        <v>1.0000195594494503</v>
+        <v>1.0000195591990293</v>
       </c>
       <c r="AK8" s="32"/>
       <c r="AL8" s="33">
         <f t="shared" si="7"/>
-        <v>3.7199285353648245E-3</v>
+        <v>3.7199285354244942E-3</v>
       </c>
       <c r="AM8" s="33">
         <f t="shared" si="8"/>
-        <v>7.7405555596813573E-3</v>
+        <v>7.7405555616571415E-3</v>
       </c>
       <c r="AN8" s="33">
         <f t="shared" si="9"/>
-        <v>2.101336321753283E-3</v>
+        <v>2.1013363212270745E-3</v>
       </c>
       <c r="AO8" s="112">
         <v>0</v>
@@ -5479,35 +5486,35 @@
       </c>
       <c r="AE9" s="31">
         <f t="shared" si="2"/>
-        <v>1.0099089621203003</v>
+        <v>1.0099089618881856</v>
       </c>
       <c r="AF9" s="31">
         <f t="shared" si="3"/>
-        <v>1.0050941512728657</v>
+        <v>1.0050941507263516</v>
       </c>
       <c r="AG9" s="31">
         <f t="shared" si="4"/>
-        <v>1.0057116133646442</v>
+        <v>1.0057116138413149</v>
       </c>
       <c r="AI9" s="68">
         <f t="shared" si="5"/>
-        <v>1.0053348711319792</v>
+        <v>1.0053348710262333</v>
       </c>
       <c r="AJ9" s="68">
         <f t="shared" si="6"/>
-        <v>1.0029111055919546</v>
+        <v>1.0029111057557523</v>
       </c>
       <c r="AL9" s="33">
         <f t="shared" si="7"/>
-        <v>3.7707605400763033E-3</v>
+        <v>3.770760539209642E-3</v>
       </c>
       <c r="AM9" s="33">
         <f t="shared" si="8"/>
-        <v>7.7823223201583048E-3</v>
+        <v>7.7823223193397234E-3</v>
       </c>
       <c r="AN9" s="33">
         <f t="shared" si="9"/>
-        <v>2.1074123138454925E-3</v>
+        <v>2.1074123141896798E-3</v>
       </c>
       <c r="AO9" s="112">
         <v>0</v>
@@ -5668,35 +5675,35 @@
       </c>
       <c r="AE10" s="31">
         <f t="shared" si="2"/>
-        <v>1.0059352715795371</v>
+        <v>1.0059352715333243</v>
       </c>
       <c r="AF10" s="31">
         <f t="shared" si="3"/>
-        <v>0.99092722925764687</v>
+        <v>0.99092722914883902</v>
       </c>
       <c r="AG10" s="31">
         <f t="shared" si="4"/>
-        <v>1.0049378092932522</v>
+        <v>1.0049378093881545</v>
       </c>
       <c r="AI10" s="68">
         <f t="shared" si="5"/>
-        <v>0.99242587706510954</v>
+        <v>0.99242587695028661</v>
       </c>
       <c r="AJ10" s="68">
         <f t="shared" si="6"/>
-        <v>1.0022383915761395</v>
+        <v>1.0022383914147521</v>
       </c>
       <c r="AL10" s="33">
         <f t="shared" si="7"/>
-        <v>3.755923722054483E-3</v>
+        <v>3.7559237218819353E-3</v>
       </c>
       <c r="AM10" s="33">
         <f t="shared" si="8"/>
-        <v>7.6823934750121364E-3</v>
+        <v>7.6823934741232893E-3</v>
       </c>
       <c r="AN10" s="33">
         <f t="shared" si="9"/>
-        <v>2.1059987430985735E-3</v>
+        <v>2.1059987427594507E-3</v>
       </c>
       <c r="AO10" s="112">
         <v>0</v>
@@ -5843,11 +5850,11 @@
       </c>
       <c r="X11">
         <f>scale_normalization!Y3</f>
-        <v>0.91041071995587675</v>
+        <v>0.91041074852700155</v>
       </c>
       <c r="Y11" s="118">
         <f>scale_normalization!Z3</f>
-        <v>0.87174417962681128</v>
+        <v>0.87174417117952785</v>
       </c>
       <c r="AA11" s="28">
         <f t="shared" si="1"/>
@@ -5863,35 +5870,35 @@
       </c>
       <c r="AE11" s="31">
         <f t="shared" si="2"/>
-        <v>1.0108187331121987</v>
+        <v>1.0108187328749989</v>
       </c>
       <c r="AF11" s="31">
         <f t="shared" si="3"/>
-        <v>1.0057192814133826</v>
+        <v>1.005719280854896</v>
       </c>
       <c r="AG11" s="31">
         <f t="shared" si="4"/>
-        <v>1.0054625917600983</v>
+        <v>1.0054625922472116</v>
       </c>
       <c r="AI11" s="68">
         <f t="shared" si="5"/>
-        <v>1.005904116762288</v>
+        <v>1.0059041166637595</v>
       </c>
       <c r="AJ11" s="68">
         <f t="shared" si="6"/>
-        <v>1.0026946235102945</v>
+        <v>1.0026946236853349</v>
       </c>
       <c r="AL11" s="33">
         <f t="shared" si="7"/>
-        <v>3.7741574091857267E-3</v>
+        <v>3.7741574083000788E-3</v>
       </c>
       <c r="AM11" s="33">
         <f t="shared" si="8"/>
-        <v>7.786728864784989E-3</v>
+        <v>7.786728864022277E-3</v>
       </c>
       <c r="AN11" s="33">
         <f t="shared" si="9"/>
-        <v>2.1069574210817433E-3</v>
+        <v>2.106957421449555E-3</v>
       </c>
       <c r="AO11" s="112">
         <v>0</v>
@@ -6038,11 +6045,11 @@
       </c>
       <c r="X12" s="35">
         <f>scale_normalization!Y4</f>
-        <v>6.9469397524750496E-4</v>
+        <v>6.9469421991735661E-4</v>
       </c>
       <c r="Y12" s="36">
         <f>scale_normalization!Z4</f>
-        <v>-2.0580238405652936E-3</v>
+        <v>-2.0580240423078121E-3</v>
       </c>
       <c r="AA12" s="28">
         <f t="shared" si="1"/>
@@ -6058,35 +6065,35 @@
       </c>
       <c r="AE12" s="31">
         <f t="shared" si="2"/>
-        <v>1.0011869726521643</v>
+        <v>1.0011869724618112</v>
       </c>
       <c r="AF12" s="31">
         <f t="shared" si="3"/>
-        <v>0.99641187878361481</v>
+        <v>0.99641187833542821</v>
       </c>
       <c r="AG12" s="31">
         <f t="shared" si="4"/>
-        <v>0.99378130442821833</v>
+        <v>0.99378130481912774</v>
       </c>
       <c r="AI12" s="68">
         <f t="shared" si="5"/>
-        <v>0.99742547509365276</v>
+        <v>0.9974254748268071</v>
       </c>
       <c r="AJ12" s="68">
         <f t="shared" si="6"/>
-        <v>0.99253196355980511</v>
+        <v>0.99253196375221542</v>
       </c>
       <c r="AL12" s="33">
         <f t="shared" si="7"/>
-        <v>3.7381947000342869E-3</v>
+        <v>3.7381946993235537E-3</v>
       </c>
       <c r="AM12" s="33">
         <f t="shared" si="8"/>
-        <v>7.7210954880891731E-3</v>
+        <v>7.7210954860235147E-3</v>
       </c>
       <c r="AN12" s="33">
         <f t="shared" si="9"/>
-        <v>2.0856026722892822E-3</v>
+        <v>2.0856026726935933E-3</v>
       </c>
       <c r="AO12" s="112">
         <v>0</v>
@@ -6242,35 +6249,35 @@
       </c>
       <c r="AE13" s="31">
         <f t="shared" si="2"/>
-        <v>0.99745574081403032</v>
+        <v>0.99745574082243826</v>
       </c>
       <c r="AF13" s="31">
         <f t="shared" si="3"/>
-        <v>1.0001796848444418</v>
+        <v>1.0001796848642381</v>
       </c>
       <c r="AG13" s="31">
         <f t="shared" si="4"/>
-        <v>1.0040343543858852</v>
+        <v>1.0040343543686188</v>
       </c>
       <c r="AI13" s="68">
         <f t="shared" si="5"/>
-        <v>1.000858634704451</v>
+        <v>1.0008586349725039</v>
       </c>
       <c r="AJ13" s="68">
         <f t="shared" si="6"/>
-        <v>1.0014528802854337</v>
+        <v>1.0014528800343248</v>
       </c>
       <c r="AL13" s="33">
         <f t="shared" si="7"/>
-        <v>3.7242631653031039E-3</v>
+        <v>3.7242631653344972E-3</v>
       </c>
       <c r="AM13" s="33">
         <f t="shared" si="8"/>
-        <v>7.7476716622923991E-3</v>
+        <v>7.7476716643674034E-3</v>
       </c>
       <c r="AN13" s="33">
         <f t="shared" si="9"/>
-        <v>2.1043481519769196E-3</v>
+        <v>2.1043481514492657E-3</v>
       </c>
       <c r="AO13" s="112">
         <v>0</v>
@@ -6426,35 +6433,35 @@
       </c>
       <c r="AE14" s="31">
         <f t="shared" si="2"/>
-        <v>1.0086764735022862</v>
+        <v>1.0086764732681468</v>
       </c>
       <c r="AF14" s="31">
         <f t="shared" si="3"/>
-        <v>1.0048805539160894</v>
+        <v>1.0048805533648082</v>
       </c>
       <c r="AG14" s="31">
         <f t="shared" si="4"/>
-        <v>1.0053599727245706</v>
+        <v>1.0053599732053993</v>
       </c>
       <c r="AI14" s="68">
         <f t="shared" si="5"/>
-        <v>1.0051403613834002</v>
+        <v>1.0051403612671246</v>
       </c>
       <c r="AJ14" s="68">
         <f t="shared" si="6"/>
-        <v>1.0026054116498198</v>
+        <v>1.0026054118202889</v>
       </c>
       <c r="AL14" s="33">
         <f t="shared" si="7"/>
-        <v>3.7661587198913001E-3</v>
+        <v>3.7661587190170789E-3</v>
       </c>
       <c r="AM14" s="33">
         <f t="shared" si="8"/>
-        <v>7.7808166153416104E-3</v>
+        <v>7.7808166144415171E-3</v>
       </c>
       <c r="AN14" s="33">
         <f t="shared" si="9"/>
-        <v>2.1067699606256199E-3</v>
+        <v>2.106769960983826E-3</v>
       </c>
       <c r="AO14" s="112">
         <v>0</v>
@@ -6610,35 +6617,35 @@
       </c>
       <c r="AE15" s="31">
         <f t="shared" si="2"/>
-        <v>1.0105121315250749</v>
+        <v>1.0105121312870871</v>
       </c>
       <c r="AF15" s="31">
         <f t="shared" si="3"/>
-        <v>1.0056387310168626</v>
+        <v>1.0056387304565202</v>
       </c>
       <c r="AG15" s="31">
         <f t="shared" si="4"/>
-        <v>1.0064676550191509</v>
+        <v>1.0064676555078829</v>
       </c>
       <c r="AI15" s="68">
         <f t="shared" si="5"/>
-        <v>1.0058307690770196</v>
+        <v>1.0058307689744661</v>
       </c>
       <c r="AJ15" s="68">
         <f t="shared" si="6"/>
-        <v>1.0035683135664484</v>
+        <v>1.0035683137341556</v>
       </c>
       <c r="AL15" s="33">
         <f t="shared" si="7"/>
-        <v>3.7730126315774323E-3</v>
+        <v>3.7730126306888424E-3</v>
       </c>
       <c r="AM15" s="33">
         <f t="shared" si="8"/>
-        <v>7.7861610785233291E-3</v>
+        <v>7.7861610777294598E-3</v>
       </c>
       <c r="AN15" s="33">
         <f t="shared" si="9"/>
-        <v>2.1087933018218777E-3</v>
+        <v>2.1087933021742803E-3</v>
       </c>
       <c r="AO15" s="112">
         <v>0</v>
@@ -6794,35 +6801,35 @@
       </c>
       <c r="AE16" s="31">
         <f t="shared" si="2"/>
-        <v>1.0012823781807745</v>
+        <v>1.0012823779996793</v>
       </c>
       <c r="AF16" s="31">
         <f t="shared" si="3"/>
-        <v>0.99633327484903467</v>
+        <v>0.99633327442264608</v>
       </c>
       <c r="AG16" s="31">
         <f t="shared" si="4"/>
-        <v>0.99474403428411884</v>
+        <v>0.99474403465601591</v>
       </c>
       <c r="AI16" s="68">
         <f t="shared" si="5"/>
-        <v>0.99735384017979356</v>
+        <v>0.99735383993055227</v>
       </c>
       <c r="AJ16" s="68">
         <f t="shared" si="6"/>
-        <v>0.99337011057906566</v>
+        <v>0.99337011074663262</v>
       </c>
       <c r="AL16" s="33">
         <f t="shared" si="7"/>
-        <v>3.7385509216503751E-3</v>
+        <v>3.7385509209742086E-3</v>
       </c>
       <c r="AM16" s="33">
         <f t="shared" si="8"/>
-        <v>7.7205409604337253E-3</v>
+        <v>7.7205409585043424E-3</v>
       </c>
       <c r="AN16" s="33">
         <f t="shared" si="9"/>
-        <v>2.0873638666158321E-3</v>
+        <v>2.0873638669679398E-3</v>
       </c>
       <c r="AO16" s="112">
         <v>0</v>
@@ -6974,35 +6981,35 @@
       </c>
       <c r="AE17" s="31">
         <f t="shared" si="2"/>
-        <v>1.0058961962525363</v>
+        <v>1.0058961961536195</v>
       </c>
       <c r="AF17" s="31">
         <f t="shared" si="3"/>
-        <v>0.99349493237592013</v>
+        <v>0.99349493214302032</v>
       </c>
       <c r="AG17" s="31">
         <f t="shared" si="4"/>
-        <v>1.0044001925480899</v>
+        <v>1.0044001927512256</v>
       </c>
       <c r="AI17" s="68">
         <f t="shared" si="5"/>
-        <v>0.9947668054279567</v>
+        <v>0.99476680527355188</v>
       </c>
       <c r="AJ17" s="68">
         <f t="shared" si="6"/>
-        <v>1.001770970173647</v>
+        <v>1.0017709701110122</v>
       </c>
       <c r="AL17" s="33">
         <f t="shared" si="7"/>
-        <v>3.7557778240511265E-3</v>
+        <v>3.7557778236817943E-3</v>
       </c>
       <c r="AM17" s="33">
         <f t="shared" si="8"/>
-        <v>7.7005146598742155E-3</v>
+        <v>7.7005146586789641E-3</v>
       </c>
       <c r="AN17" s="33">
         <f t="shared" si="9"/>
-        <v>2.1050165527390537E-3</v>
+        <v>2.1050165526074398E-3</v>
       </c>
       <c r="AO17" s="112">
         <v>0</v>
@@ -7869,7 +7876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131672C0-DA0C-0746-8A59-3EFE5C746DAE}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -7896,24 +7903,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
       <c r="O1" s="105" t="s">
         <v>114</v>
       </c>
@@ -8072,19 +8079,19 @@
       </c>
       <c r="S3" s="102">
         <f>size_correction!AF3</f>
-        <v>1.0056851052976181</v>
+        <v>1.005685104743353</v>
       </c>
       <c r="T3" s="102">
         <f>size_correction!AG3</f>
-        <v>1.0075218399408568</v>
+        <v>1.0075218404242881</v>
       </c>
       <c r="U3" s="60">
         <f t="shared" ref="U3:U17" si="1">LN(S3)</f>
-        <v>5.6690060748599133E-3</v>
+        <v>5.6690055237280769E-3</v>
       </c>
       <c r="V3" s="60">
         <f t="shared" ref="V3:V17" si="2">LN(T3)</f>
-        <v>7.4936919644022753E-3</v>
+        <v>7.4936924442244243E-3</v>
       </c>
       <c r="W3" s="60">
         <f t="shared" ref="W3:X9" si="3">LN(Q3)</f>
@@ -8096,11 +8103,11 @@
       </c>
       <c r="Y3" s="64">
         <f>SLOPE(W3:W54,U3:U54)</f>
-        <v>0.91041071995587675</v>
+        <v>0.91041074852700155</v>
       </c>
       <c r="Z3" s="64">
         <f>SLOPE(X3:X54,V3:V54)</f>
-        <v>0.87174417962681128</v>
+        <v>0.87174417117952785</v>
       </c>
       <c r="AA3" t="s">
         <v>181</v>
@@ -8173,19 +8180,19 @@
       </c>
       <c r="S4" s="102">
         <f>size_correction!AF4</f>
-        <v>0.99668972770557829</v>
+        <v>0.9966897272061902</v>
       </c>
       <c r="T4" s="102">
         <f>size_correction!AG4</f>
-        <v>0.99497700286985102</v>
+        <v>0.99497700330541849</v>
       </c>
       <c r="U4" s="60">
         <f t="shared" si="1"/>
-        <v>-3.3157633670658081E-3</v>
+        <v>-3.3157638681124957E-3</v>
       </c>
       <c r="V4" s="60">
         <f t="shared" si="2"/>
-        <v>-5.0356547842637621E-3</v>
+        <v>-5.0356543464973921E-3</v>
       </c>
       <c r="W4" s="60">
         <f t="shared" si="3"/>
@@ -8197,11 +8204,11 @@
       </c>
       <c r="Y4" s="64">
         <f>INTERCEPT(W3:W54,U3:U54)</f>
-        <v>6.9469397524750496E-4</v>
+        <v>6.9469421991735661E-4</v>
       </c>
       <c r="Z4" s="64">
         <f>INTERCEPT(X3:X54,V3:V54)</f>
-        <v>-2.0580238405652936E-3</v>
+        <v>-2.0580240423078121E-3</v>
       </c>
       <c r="AA4" t="s">
         <v>182</v>
@@ -8274,19 +8281,19 @@
       </c>
       <c r="S5" s="102">
         <f>size_correction!AF5</f>
-        <v>1.0003832772874761</v>
+        <v>1.000383277330599</v>
       </c>
       <c r="T5" s="102">
         <f>size_correction!AG5</f>
-        <v>1.0043106480077921</v>
+        <v>1.0043106479701802</v>
       </c>
       <c r="U5" s="60">
         <f t="shared" si="1"/>
-        <v>3.8320385549917295E-4</v>
+        <v>3.8320389860548991E-4</v>
       </c>
       <c r="V5" s="60">
         <f t="shared" si="2"/>
-        <v>4.3013837783483656E-3</v>
+        <v>4.3013837408978879E-3</v>
       </c>
       <c r="W5" s="60">
         <f t="shared" si="3"/>
@@ -8364,19 +8371,19 @@
       </c>
       <c r="S6" s="102">
         <f>size_correction!AF6</f>
-        <v>1.0064059824102283</v>
+        <v>1.0064059818640783</v>
       </c>
       <c r="T6" s="102">
         <f>size_correction!AG6</f>
-        <v>1.0077071570383731</v>
+        <v>1.0077071575147265</v>
       </c>
       <c r="U6" s="60">
         <f t="shared" si="1"/>
-        <v>6.3855513126554056E-3</v>
+        <v>6.3855507699817496E-3</v>
       </c>
       <c r="V6" s="60">
         <f t="shared" si="2"/>
-        <v>7.6776086292741075E-3</v>
+        <v>7.6776091019842571E-3</v>
       </c>
       <c r="W6" s="60">
         <f t="shared" si="3"/>
@@ -8454,19 +8461,19 @@
       </c>
       <c r="S7" s="102">
         <f>size_correction!AF7</f>
-        <v>0.99663201609671503</v>
+        <v>0.99663201670534773</v>
       </c>
       <c r="T7" s="102">
         <f>size_correction!AG7</f>
-        <v>0.9951628615034982</v>
+        <v>0.99516286097264728</v>
       </c>
       <c r="U7" s="60">
         <f t="shared" si="1"/>
-        <v>-3.3736683280273967E-3</v>
+        <v>-3.3736677173379051E-3</v>
       </c>
       <c r="V7" s="60">
         <f t="shared" si="2"/>
-        <v>-4.8488753146248009E-3</v>
+        <v>-4.8488758480560003E-3</v>
       </c>
       <c r="W7" s="60">
         <f t="shared" si="3"/>
@@ -8544,19 +8551,19 @@
       </c>
       <c r="S8" s="102">
         <f>size_correction!AF8</f>
-        <v>0.99917068284195976</v>
+        <v>0.99917068287958766</v>
       </c>
       <c r="T8" s="102">
         <f>size_correction!AG8</f>
-        <v>1.0023860907979212</v>
+        <v>1.0023860907651021</v>
       </c>
       <c r="U8" s="60">
         <f t="shared" si="1"/>
-        <v>-8.2966123175853173E-4</v>
+        <v>-8.2966119409939951E-4</v>
       </c>
       <c r="V8" s="60">
         <f t="shared" si="2"/>
-        <v>2.3832486035312902E-3</v>
+        <v>2.3832485707903322E-3</v>
       </c>
       <c r="W8" s="60">
         <f t="shared" si="3"/>
@@ -8634,19 +8641,19 @@
       </c>
       <c r="S9" s="102">
         <f>size_correction!AF9</f>
-        <v>1.0050941512728657</v>
+        <v>1.0050941507263516</v>
       </c>
       <c r="T9" s="102">
         <f>size_correction!AG9</f>
-        <v>1.0057116133646442</v>
+        <v>1.0057116138413149</v>
       </c>
       <c r="U9" s="60">
         <f t="shared" si="1"/>
-        <v>5.0812199816469847E-3</v>
+        <v>5.0812194379027328E-3</v>
       </c>
       <c r="V9" s="60">
         <f t="shared" si="2"/>
-        <v>5.6953639452707308E-3</v>
+        <v>5.695364419234337E-3</v>
       </c>
       <c r="W9" s="60">
         <f t="shared" si="3"/>
@@ -8661,17 +8668,17 @@
       <c r="A10" s="108">
         <v>94321</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="119">
         <v>50.52</v>
       </c>
-      <c r="C10" s="123">
+      <c r="C10" s="119">
         <v>2.21</v>
       </c>
       <c r="D10" s="109">
         <f t="shared" ref="D10" si="12">AVERAGE(B10:C10)</f>
         <v>26.365000000000002</v>
       </c>
-      <c r="E10" s="123">
+      <c r="E10" s="119">
         <v>35.54</v>
       </c>
       <c r="F10" s="109">
@@ -8724,19 +8731,19 @@
       </c>
       <c r="S10" s="102">
         <f>size_correction!AF10</f>
-        <v>0.99092722925764687</v>
+        <v>0.99092722914883902</v>
       </c>
       <c r="T10" s="102">
         <f>size_correction!AG10</f>
-        <v>1.0049378092932522</v>
+        <v>1.0049378093881545</v>
       </c>
       <c r="U10" s="60">
         <f t="shared" ref="U10" si="20">LN(S10)</f>
-        <v>-9.1141789753790732E-3</v>
+        <v>-9.1141790851831522E-3</v>
       </c>
       <c r="V10" s="60">
         <f t="shared" ref="V10" si="21">LN(T10)</f>
-        <v>4.9256582960658154E-3</v>
+        <v>4.9256583905018169E-3</v>
       </c>
       <c r="W10" s="60">
         <f t="shared" ref="W10" si="22">LN(Q10)</f>
@@ -8764,19 +8771,19 @@
       </c>
       <c r="S11" s="102">
         <f>size_correction!AF11</f>
-        <v>1.0057192814133826</v>
+        <v>1.005719280854896</v>
       </c>
       <c r="T11" s="102">
         <f>size_correction!AG11</f>
-        <v>1.0054625917600983</v>
+        <v>1.0054625922472116</v>
       </c>
       <c r="U11" s="60">
         <f t="shared" si="1"/>
-        <v>5.7029884167436144E-3</v>
+        <v>5.7029878614330018E-3</v>
       </c>
       <c r="V11" s="60">
         <f t="shared" si="2"/>
-        <v>5.4477259185061388E-3</v>
+        <v>5.4477264029729328E-3</v>
       </c>
       <c r="W11" s="60">
         <f t="shared" ref="W11:X16" si="25">LN(Q11)</f>
@@ -8804,19 +8811,19 @@
       </c>
       <c r="S12" s="102">
         <f>size_correction!AF12</f>
-        <v>0.99641187878361481</v>
+        <v>0.99641187833542821</v>
       </c>
       <c r="T12" s="102">
         <f>size_correction!AG12</f>
-        <v>0.99378130442821833</v>
+        <v>0.99378130481912774</v>
       </c>
       <c r="U12" s="60">
         <f t="shared" si="1"/>
-        <v>-3.5945739634335372E-3</v>
+        <v>-3.5945744132340751E-3</v>
       </c>
       <c r="V12" s="60">
         <f t="shared" si="2"/>
-        <v>-6.2381121983366193E-3</v>
+        <v>-6.2381118049810447E-3</v>
       </c>
       <c r="W12" s="60">
         <f t="shared" si="25"/>
@@ -8842,19 +8849,19 @@
       </c>
       <c r="S13" s="102">
         <f>size_correction!AF13</f>
-        <v>1.0001796848444418</v>
+        <v>1.0001796848642381</v>
       </c>
       <c r="T13" s="102">
         <f>size_correction!AG13</f>
-        <v>1.0040343543858852</v>
+        <v>1.0040343543686188</v>
       </c>
       <c r="U13" s="60">
         <f t="shared" si="1"/>
-        <v>1.7966870305363727E-4</v>
+        <v>1.7966872284646754E-4</v>
       </c>
       <c r="V13" s="60">
         <f t="shared" si="2"/>
-        <v>4.0262381999534996E-3</v>
+        <v>4.0262381827564685E-3</v>
       </c>
       <c r="W13" s="60">
         <f t="shared" si="25"/>
@@ -8880,19 +8887,19 @@
       </c>
       <c r="S14" s="102">
         <f>size_correction!AF14</f>
-        <v>1.0048805539160894</v>
+        <v>1.0048805533648082</v>
       </c>
       <c r="T14" s="102">
         <f>size_correction!AG14</f>
-        <v>1.0053599727245706</v>
+        <v>1.0053599732053993</v>
       </c>
       <c r="U14" s="60">
         <f t="shared" si="1"/>
-        <v>4.8686826228146419E-3</v>
+        <v>4.8686820742108883E-3</v>
       </c>
       <c r="V14" s="60">
         <f t="shared" si="2"/>
-        <v>5.3456591947391319E-3</v>
+        <v>5.3456596730043536E-3</v>
       </c>
       <c r="W14" s="60">
         <f t="shared" si="25"/>
@@ -8918,19 +8925,19 @@
       </c>
       <c r="S15" s="102">
         <f>size_correction!AF15</f>
-        <v>1.0056387310168626</v>
+        <v>1.0056387304565202</v>
       </c>
       <c r="T15" s="102">
         <f>size_correction!AG15</f>
-        <v>1.0064676550191509</v>
+        <v>1.0064676555078829</v>
       </c>
       <c r="U15" s="60">
         <f t="shared" si="1"/>
-        <v>5.6228928832132777E-3</v>
+        <v>5.622892326012742E-3</v>
       </c>
       <c r="V15" s="60">
         <f t="shared" si="2"/>
-        <v>6.446829485110093E-3</v>
+        <v>6.4468299707013997E-3</v>
       </c>
       <c r="W15" s="60">
         <f t="shared" si="25"/>
@@ -8956,19 +8963,19 @@
       </c>
       <c r="S16" s="102">
         <f>size_correction!AF16</f>
-        <v>0.99633327484903467</v>
+        <v>0.99633327442264608</v>
       </c>
       <c r="T16" s="102">
         <f>size_correction!AG16</f>
-        <v>0.99474403428411884</v>
+        <v>0.99474403465601591</v>
       </c>
       <c r="U16" s="60">
         <f t="shared" si="1"/>
-        <v>-3.6734640658408848E-3</v>
+        <v>-3.6734644937986794E-3</v>
       </c>
       <c r="V16" s="60">
         <f t="shared" si="2"/>
-        <v>-5.2698268942697113E-3</v>
+        <v>-5.2698265204076363E-3</v>
       </c>
       <c r="W16" s="60">
         <f t="shared" si="25"/>
@@ -8988,19 +8995,19 @@
       <c r="R17" s="61"/>
       <c r="S17" s="102">
         <f>size_correction!AF17</f>
-        <v>0.99349493237592013</v>
+        <v>0.99349493214302032</v>
       </c>
       <c r="T17" s="102">
         <f>size_correction!AG17</f>
-        <v>1.0044001925480899</v>
+        <v>1.0044001927512256</v>
       </c>
       <c r="U17" s="60">
         <f t="shared" si="1"/>
-        <v>-6.5263177824188435E-3</v>
+        <v>-6.5263180168436035E-3</v>
       </c>
       <c r="V17" s="60">
         <f t="shared" si="2"/>
-        <v>4.3905400058642007E-3</v>
+        <v>4.3905402081100102E-3</v>
       </c>
       <c r="W17" s="60"/>
       <c r="X17" s="60"/>
@@ -9145,22 +9152,22 @@
       <c r="S2" s="69"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
       <c r="M3" t="s">
         <v>125</v>
       </c>
